--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\ESCALETAS GUIONES 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="9980" yWindow="0" windowWidth="25600" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="320">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1120,12 +1115,78 @@
   <si>
     <t>(DBA: 4, 13, 14) Recurso elaborado por el autor. Aprobado para digitalizar. Obervar que la descripción se modifica un poco. A su vez, dar más claridad en el Enunciado Principal (Instrucción), que se entienda cómo va a desarrollarse la parte de la exposición a la clase.</t>
   </si>
+  <si>
+    <t xml:space="preserve">LE_10_01_COEl análisis literario Lingüística: el signo lingüístico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: las características del signo lingüístico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comprender las características del signo lingüístico </t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lectura crítica: el análisis de textos literariosConsolidación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: titular párrafos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para desarrollar habilidades lectoras </t>
+  </si>
+  <si>
+    <t>Proponer ejercicio para aplicar la estrategia de titular párrafos. Se les pueden dar los párrafos y también ponerlos a reflexionar sobre esta estrategia, que digan por qué es útil, cuándo la emplearían…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM </t>
+  </si>
+  <si>
+    <t>Recursos M101A-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producción escrita: el análisis de textos literarios  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El análisis literario </t>
+  </si>
+  <si>
+    <t>Actividad para aplicar los conocimientos de la literatura española medieval en un análisis literario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer un fragmento de la literatura medieval ESPAÑOLA y elaborar preguntas que apunten al análisis literario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer consultar sobre el signo lingüístico y algunos autores como Saussure y Pierce. Para llegar a conclusiones sobre lo que es el signo lingüístico. Proponer preguntas que busquen analizar lo que dice cada uno. </t>
+  </si>
+  <si>
+    <t>Recursos M101A-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe incluirse 10 preguntas. 3 de la sección de literatura. 2 de lingüística. 2 de ortografía. 2 de comprensión y 1 de Producción. </t>
+  </si>
+  <si>
+    <t>Recurso M101AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema El análisi literario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_10_01_CO El análisis literario Banco de actividades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_10_01_CO El análisis literario Lingüística: el signo lingüístico </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,6 +1243,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1264,7 +1338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1535,8 +1609,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1950,8 +2053,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2055,6 +2160,70 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2077,7 +2246,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="413">
+  <cellStyles count="415">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2284,6 +2453,7 @@
     <cellStyle name="Hipervínculo" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="413" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2490,6 +2660,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="414" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2760,7 +2931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2768,128 +2939,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="58.83203125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="92.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="92.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="64.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="64.33203125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="36.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="36.5" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="65" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="105" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="17" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
@@ -2948,7 +3119,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>68</v>
       </c>
@@ -3007,7 +3178,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28">
       <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
@@ -3066,7 +3237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="56">
       <c r="A6" s="20" t="s">
         <v>68</v>
       </c>
@@ -3125,7 +3296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28">
       <c r="A7" s="20" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="42">
       <c r="A8" s="20" t="s">
         <v>68</v>
       </c>
@@ -3243,7 +3414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="28">
       <c r="A9" s="20" t="s">
         <v>68</v>
       </c>
@@ -3302,7 +3473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="56">
       <c r="A10" s="20" t="s">
         <v>68</v>
       </c>
@@ -3365,7 +3536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="42">
       <c r="A11" s="20" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
@@ -3487,7 +3658,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>68</v>
       </c>
@@ -3548,7 +3719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="42">
       <c r="A14" s="20" t="s">
         <v>68</v>
       </c>
@@ -3609,7 +3780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="20" t="s">
         <v>68</v>
       </c>
@@ -3670,7 +3841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="56">
       <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
@@ -3731,7 +3902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="20" t="s">
         <v>68</v>
       </c>
@@ -3792,7 +3963,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="28">
       <c r="A18" s="20" t="s">
         <v>68</v>
       </c>
@@ -3853,7 +4024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="28">
       <c r="A19" s="20" t="s">
         <v>68</v>
       </c>
@@ -3914,7 +4085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="42">
       <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
@@ -3973,7 +4144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="28">
       <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
@@ -4034,7 +4205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="20" t="s">
         <v>68</v>
       </c>
@@ -4093,7 +4264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="56">
       <c r="A23" s="20" t="s">
         <v>68</v>
       </c>
@@ -4154,7 +4325,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
@@ -4213,7 +4384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="70">
       <c r="A25" s="20" t="s">
         <v>68</v>
       </c>
@@ -4274,7 +4445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="28">
       <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
@@ -4335,7 +4506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="28">
       <c r="A27" s="20" t="s">
         <v>68</v>
       </c>
@@ -4394,66 +4565,64 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:21" ht="42">
+      <c r="A28" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="34">
+      <c r="B28" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" s="72">
         <v>26</v>
       </c>
-      <c r="I28" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="38" t="s">
+      <c r="I28" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="K28" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="P28" s="40" t="s">
+      <c r="L28" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="P28" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="79">
         <v>6</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R28" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="S28" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="T28" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="U28" s="80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="42">
       <c r="A29" s="20" t="s">
         <v>68</v>
       </c>
@@ -4469,7 +4638,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="33" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="H29" s="34">
         <v>27</v>
@@ -4478,39 +4647,41 @@
         <v>92</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
+      <c r="N29" s="42" t="s">
+        <v>45</v>
+      </c>
       <c r="O29" s="41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>113</v>
+      <c r="Q29" s="1">
+        <v>6</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="20" t="s">
         <v>68</v>
       </c>
@@ -4526,7 +4697,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="34">
         <v>28</v>
@@ -4535,7 +4706,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K30" s="38" t="s">
         <v>70</v>
@@ -4561,13 +4732,13 @@
         <v>106</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="20" t="s">
         <v>68</v>
       </c>
@@ -4583,7 +4754,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
       <c r="G31" s="33" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="H31" s="34">
         <v>29</v>
@@ -4592,7 +4763,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="K31" s="38" t="s">
         <v>70</v>
@@ -4618,13 +4789,13 @@
         <v>106</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
@@ -4637,12 +4808,10 @@
       <c r="D32" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>152</v>
-      </c>
+      <c r="E32" s="27"/>
       <c r="F32" s="28"/>
       <c r="G32" s="33" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="H32" s="34">
         <v>30</v>
@@ -4651,41 +4820,39 @@
         <v>92</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="42" t="s">
-        <v>77</v>
-      </c>
+      <c r="M32" s="42"/>
       <c r="N32" s="42"/>
       <c r="O32" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="1">
-        <v>6</v>
+      <c r="Q32" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="28">
       <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
@@ -4703,7 +4870,7 @@
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="33" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="H33" s="34">
         <v>31</v>
@@ -4712,7 +4879,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K33" s="38" t="s">
         <v>69</v>
@@ -4721,14 +4888,14 @@
         <v>32</v>
       </c>
       <c r="M33" s="42" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N33" s="42"/>
       <c r="O33" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P33" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="1">
         <v>6</v>
@@ -4740,13 +4907,13 @@
         <v>94</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="28">
       <c r="A34" s="20" t="s">
         <v>68</v>
       </c>
@@ -4757,55 +4924,57 @@
         <v>91</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="27"/>
+        <v>188</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="F34" s="28"/>
       <c r="G34" s="33" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="H34" s="34">
         <v>32</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K34" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="42"/>
       <c r="O34" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P34" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="1">
         <v>6</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="42">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -4818,55 +4987,53 @@
       <c r="D35" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>211</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="33" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="H35" s="34">
         <v>33</v>
       </c>
-      <c r="I35" s="31" t="s">
-        <v>92</v>
+      <c r="I35" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="K35" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42" t="s">
-        <v>285</v>
+      <c r="L35" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="P35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="1">
         <v>6</v>
       </c>
-      <c r="R35" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="S35" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="R35" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="28">
       <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
@@ -4880,33 +5047,33 @@
         <v>201</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="33" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="H36" s="34">
         <v>34</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="37" t="s">
         <v>32</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N36" s="42"/>
-      <c r="O36" s="41" t="s">
-        <v>286</v>
+      <c r="O36" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="P36" s="40" t="s">
         <v>19</v>
@@ -4921,135 +5088,131 @@
         <v>94</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:21" ht="28">
+      <c r="A37" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="53">
+      <c r="F37" s="28"/>
+      <c r="G37" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="34">
         <v>35</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="I37" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="56" t="s">
+      <c r="J37" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="57" t="s">
+      <c r="L37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="P37" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="60">
+      <c r="M37" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="42"/>
+      <c r="O37" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="P37" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="3">
         <v>6</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="S37" s="60" t="s">
+      <c r="S37" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="T37" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="U37" s="61" t="s">
+      <c r="T37" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="U37" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:21" ht="42">
+      <c r="A38" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H38" s="53">
+      <c r="B38" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="72">
         <v>36</v>
       </c>
-      <c r="I38" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="56" t="s">
+      <c r="I38" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="P38" s="59" t="s">
+      <c r="L38" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="81"/>
+      <c r="O38" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="P38" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="87">
         <v>6</v>
       </c>
-      <c r="R38" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="R38" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="S38" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="T38" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="U38" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="28">
       <c r="A39" s="46" t="s">
         <v>68</v>
       </c>
@@ -5060,55 +5223,57 @@
         <v>91</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="34">
+        <v>201</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="53">
         <v>37</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="K39" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="39" t="s">
+      <c r="J39" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="P39" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="M39" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="P39" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="60">
+        <v>6</v>
+      </c>
+      <c r="R39" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="U39" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="28">
       <c r="A40" s="46" t="s">
         <v>68</v>
       </c>
@@ -5121,71 +5286,73 @@
       <c r="D40" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="H40" s="34">
+      <c r="E40" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" s="53">
         <v>38</v>
       </c>
-      <c r="I40" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="K40" s="36" t="s">
+      <c r="I40" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="P40" s="40" t="s">
+      <c r="L40" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="P40" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="1">
         <v>6</v>
       </c>
-      <c r="R40" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="R40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="56">
+      <c r="A41" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="D41" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="28"/>
       <c r="G41" s="33" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="H41" s="34">
         <v>39</v>
@@ -5194,7 +5361,7 @@
         <v>92</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="K41" s="38" t="s">
         <v>70</v>
@@ -5205,7 +5372,7 @@
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
       <c r="O41" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P41" s="40" t="s">
         <v>19</v>
@@ -5220,131 +5387,133 @@
         <v>110</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:21" ht="28">
+      <c r="A42" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="33" t="s">
-        <v>182</v>
+      <c r="B42" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="93"/>
+      <c r="D42" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="67" t="s">
+        <v>310</v>
       </c>
       <c r="H42" s="34">
         <v>40</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="K42" s="38" t="s">
+      <c r="J42" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="42" t="s">
-        <v>61</v>
+      <c r="M42" s="76" t="s">
+        <v>62</v>
       </c>
       <c r="N42" s="42"/>
-      <c r="O42" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="P42" s="40" t="s">
+      <c r="O42" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="P42" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="87">
         <v>6</v>
       </c>
-      <c r="R42" s="13" t="s">
+      <c r="R42" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="S42" s="13" t="s">
+      <c r="S42" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="T42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="U42" s="2" t="s">
+      <c r="T42" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="U42" s="96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:21" ht="42">
+      <c r="A43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="28"/>
       <c r="G43" s="33" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="H43" s="34">
         <v>41</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="31" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="K43" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="37" t="s">
         <v>32</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N43" s="42"/>
-      <c r="O43" s="41" t="s">
-        <v>181</v>
+      <c r="O43" s="42" t="s">
+        <v>293</v>
       </c>
       <c r="P43" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="3">
         <v>6</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="R43" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="T43" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="U43" s="2" t="s">
+      <c r="T43" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U43" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="20" t="s">
         <v>68</v>
       </c>
@@ -5354,13 +5523,13 @@
       <c r="C44" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="33" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="H44" s="34">
         <v>42</v>
@@ -5369,41 +5538,39 @@
         <v>92</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="K44" s="38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="42" t="s">
-        <v>64</v>
-      </c>
+      <c r="M44" s="42"/>
       <c r="N44" s="42"/>
       <c r="O44" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P44" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="1">
-        <v>6</v>
+      <c r="Q44" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="5" customFormat="1">
       <c r="A45" s="20" t="s">
         <v>68</v>
       </c>
@@ -5414,12 +5581,12 @@
         <v>91</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="30"/>
       <c r="G45" s="33" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H45" s="34">
         <v>43</v>
@@ -5428,27 +5595,41 @@
         <v>92</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="K45" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="N45" s="42"/>
-      <c r="O45" s="41"/>
+      <c r="O45" s="41" t="s">
+        <v>295</v>
+      </c>
       <c r="P45" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <v>6</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="20" t="s">
         <v>68</v>
       </c>
@@ -5459,12 +5640,12 @@
         <v>91</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
       <c r="G46" s="33" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="H46" s="34">
         <v>44</v>
@@ -5473,7 +5654,7 @@
         <v>92</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="K46" s="38" t="s">
         <v>69</v>
@@ -5482,11 +5663,11 @@
         <v>32</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N46" s="42"/>
       <c r="O46" s="41" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="P46" s="40" t="s">
         <v>19</v>
@@ -5501,67 +5682,223 @@
         <v>94</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
+    <row r="47" spans="1:21" ht="28">
+      <c r="A47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="H47" s="34">
+        <v>45</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N47" s="42"/>
+      <c r="O47" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="P47" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>6</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="E48" s="29"/>
       <c r="F48" s="30"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
+      <c r="G48" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="34">
+        <v>46</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="M48" s="42"/>
       <c r="N48" s="42"/>
       <c r="O48" s="41"/>
-      <c r="P48" s="40"/>
+      <c r="P48" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="42"/>
+    <row r="49" spans="1:21">
+      <c r="A49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="34">
+        <v>47</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O49" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>6</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="28">
+      <c r="A50" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="H50" s="7">
+        <v>48</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="K50" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" s="99"/>
+      <c r="O50" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="P50" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="99">
+        <v>6</v>
+      </c>
+      <c r="R50" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="S50" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="T50" s="99" t="s">
+        <v>316</v>
+      </c>
+      <c r="U50" s="99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -5584,53 +5921,38 @@
       <c r="T51" s="13"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="33"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="35"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
       <c r="M52" s="42"/>
       <c r="N52" s="42"/>
-      <c r="O52" s="41"/>
+      <c r="O52" s="42"/>
       <c r="P52" s="40"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="24"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="29"/>
       <c r="F53" s="30"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -5653,7 +5975,7 @@
       <c r="T54" s="13"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -5676,7 +5998,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -5699,7 +6021,7 @@
       <c r="T56" s="13"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -5722,7 +6044,7 @@
       <c r="T57" s="13"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -5745,7 +6067,7 @@
       <c r="T58" s="13"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -5768,7 +6090,7 @@
       <c r="T59" s="13"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -5791,7 +6113,7 @@
       <c r="T60" s="13"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -5814,7 +6136,7 @@
       <c r="T61" s="13"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -5837,7 +6159,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -5860,7 +6182,7 @@
       <c r="T63" s="13"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -5883,7 +6205,7 @@
       <c r="T64" s="13"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -5906,7 +6228,7 @@
       <c r="T65" s="13"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -5929,7 +6251,7 @@
       <c r="T66" s="13"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -5952,7 +6274,7 @@
       <c r="T67" s="13"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -5975,7 +6297,7 @@
       <c r="T68" s="13"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -5998,7 +6320,7 @@
       <c r="T69" s="13"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -6021,7 +6343,7 @@
       <c r="T70" s="13"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -6044,7 +6366,7 @@
       <c r="T71" s="13"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -6067,7 +6389,7 @@
       <c r="T72" s="13"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -6090,7 +6412,7 @@
       <c r="T73" s="13"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -6113,7 +6435,7 @@
       <c r="T74" s="13"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -6136,7 +6458,7 @@
       <c r="T75" s="13"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -6159,7 +6481,7 @@
       <c r="T76" s="13"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -6182,7 +6504,7 @@
       <c r="T77" s="13"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -6205,7 +6527,7 @@
       <c r="T78" s="13"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -6228,7 +6550,7 @@
       <c r="T79" s="13"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -6251,7 +6573,7 @@
       <c r="T80" s="13"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -6274,7 +6596,7 @@
       <c r="T81" s="13"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -6297,7 +6619,7 @@
       <c r="T82" s="13"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -6320,7 +6642,7 @@
       <c r="T83" s="13"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -6343,7 +6665,7 @@
       <c r="T84" s="13"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -6366,7 +6688,7 @@
       <c r="T85" s="13"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -6389,7 +6711,7 @@
       <c r="T86" s="13"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -6412,7 +6734,7 @@
       <c r="T87" s="13"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -6435,7 +6757,7 @@
       <c r="T88" s="13"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -6458,7 +6780,7 @@
       <c r="T89" s="13"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -6481,7 +6803,7 @@
       <c r="T90" s="13"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -6504,13 +6826,77 @@
       <c r="T91" s="13"/>
       <c r="U91" s="2"/>
     </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="2"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6526,8 +6912,14 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -6535,37 +6927,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A36 A51:A91 A41:A46 A48:A49</xm:sqref>
+          <xm:sqref>A3:A38 A54:A94 A44:A49 A51:A52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K36 K39:K46 K48:K49 K51:K91</xm:sqref>
+          <xm:sqref>K3:K38 K41:K49 K51:K52 K54:K94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L36 L38:L46 L48:L49 L51:L91</xm:sqref>
+          <xm:sqref>L3:L38 L40:L49 L51:L52 L54:L94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P13:P24 P3:P11 P26:P36 P39:P46 P48:P49 P51:P91</xm:sqref>
+          <xm:sqref>P13:P24 P3:P11 P26:P38 P41:P49 P51:P52 P54:P94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M8:M24 M4 M26:M36 M39:M46 M48:M49 M51:M91</xm:sqref>
+          <xm:sqref>M8:M24 M4 M26:M38 M41:M49 M51:M52 M54:M94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N9:N24 N4 N26:N36 N39:N46 N48:N49 N51:N91</xm:sqref>
+          <xm:sqref>N9:N24 N4 N26:N38 N41:N49 N51:N52 N54:N94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6584,16 +6976,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -6616,7 +7008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>34</v>
@@ -6637,7 +7029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>35</v>
@@ -6658,7 +7050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>36</v>
@@ -6675,7 +7067,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>37</v>
@@ -6692,7 +7084,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>38</v>
@@ -6707,7 +7099,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>39</v>
@@ -6720,7 +7112,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>40</v>
@@ -6733,7 +7125,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>41</v>
@@ -6746,7 +7138,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>42</v>
@@ -6759,7 +7151,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>43</v>
@@ -6774,7 +7166,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>44</v>
@@ -6789,7 +7181,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -6804,7 +7196,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>46</v>
@@ -6819,7 +7211,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -6832,7 +7224,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -6845,7 +7237,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -6858,7 +7250,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
@@ -6871,7 +7263,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -6884,7 +7276,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -6897,7 +7289,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -6910,7 +7302,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -6923,7 +7315,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -6936,7 +7328,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -6949,7 +7341,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -6960,7 +7352,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -6971,7 +7363,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -6982,7 +7374,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -6993,7 +7385,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -7004,7 +7396,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
@@ -7015,7 +7407,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -7026,7 +7418,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
@@ -7037,7 +7429,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
@@ -7048,7 +7440,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
@@ -7059,7 +7451,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
@@ -7070,7 +7462,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
@@ -7081,7 +7473,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="15" t="s">
@@ -7092,7 +7484,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
@@ -7103,7 +7495,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
@@ -7114,7 +7506,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7123,7 +7515,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -7132,7 +7524,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7141,7 +7533,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -7150,7 +7542,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7159,7 +7551,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7168,7 +7560,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7177,7 +7569,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -7186,7 +7578,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7195,7 +7587,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -7204,7 +7596,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>

--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="0" windowWidth="25600" windowHeight="13340"/>
+    <workbookView xWindow="560" yWindow="420" windowWidth="25040" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2931,7 +2931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6897,6 +6897,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6912,14 +6917,8 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="420" windowWidth="25040" windowHeight="13800"/>
+    <workbookView xWindow="558" yWindow="422" windowWidth="25038" windowHeight="13797"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -442,6 +447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>El Conde Lucanor</t>
@@ -463,6 +469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cantar de mio Cid</t>
@@ -490,6 +497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Libro de Buen Amor</t>
@@ -511,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Libro de Buen Amor</t>
@@ -544,6 +553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>La Celestina</t>
@@ -565,6 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Romance del cerco de Baza</t>
@@ -673,6 +684,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>La Celestina</t>
@@ -691,6 +703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>h</t>
@@ -709,6 +722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>h</t>
@@ -724,6 +738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>h</t>
@@ -820,6 +835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Beowulf</t>
@@ -990,6 +1006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>h</t>
@@ -1235,6 +1252,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2056,188 +2074,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2245,6 +2127,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="415">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2931,7 +2903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2941,150 +2913,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="5" max="5" width="58.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="59" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="92.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" customWidth="1"/>
-    <col min="15" max="15" width="64.33203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="36.5" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.73046875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="45.73046875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="59" style="26" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="92.33203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="14" style="101" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="101" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="101" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="64.33203125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
+    <col min="18" max="18" width="7.46484375" style="26" customWidth="1"/>
+    <col min="19" max="19" width="11" style="26" customWidth="1"/>
+    <col min="20" max="20" width="36.46484375" style="26" customWidth="1"/>
+    <col min="21" max="21" width="13.1328125" style="26" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="105" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="105" t="s">
+      <c r="R1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="105" t="s">
+      <c r="U1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="17" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="36">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="37" t="s">
         <v>228</v>
       </c>
       <c r="K3" s="38" t="s">
@@ -3093,57 +3066,57 @@
       <c r="L3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="41">
         <v>6</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="33" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="37" t="s">
         <v>234</v>
       </c>
       <c r="K4" s="38" t="s">
@@ -3152,57 +3125,57 @@
       <c r="L4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="62">
+      <c r="Q4" s="41">
         <v>6</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="T4" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="10">
         <v>3</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="37" t="s">
         <v>241</v>
       </c>
       <c r="K5" s="38" t="s">
@@ -3211,57 +3184,57 @@
       <c r="L5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="41">
         <v>6</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="R5" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="S5" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="62" t="s">
+      <c r="T5" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="U5" s="63" t="s">
+      <c r="U5" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="56">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="37" t="s">
         <v>243</v>
       </c>
       <c r="K6" s="38" t="s">
@@ -3270,57 +3243,57 @@
       <c r="L6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="46">
         <v>6</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="28">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="36">
         <v>5</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="37" t="s">
         <v>265</v>
       </c>
       <c r="K7" s="38" t="s">
@@ -3329,57 +3302,57 @@
       <c r="L7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="41">
         <v>6</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="62" t="s">
+      <c r="S7" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="62" t="s">
+      <c r="T7" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="42">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="33" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="37" t="s">
         <v>247</v>
       </c>
       <c r="K8" s="38" t="s">
@@ -3388,59 +3361,59 @@
       <c r="L8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="48">
         <v>6</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="28">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="10">
         <v>7</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K9" s="38" t="s">
@@ -3449,59 +3422,59 @@
       <c r="L9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41" t="s">
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="56">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="10">
         <v>8</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="37" t="s">
         <v>132</v>
       </c>
       <c r="K10" s="38" t="s">
@@ -3510,61 +3483,61 @@
       <c r="L10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="41" t="s">
+      <c r="N10" s="52"/>
+      <c r="O10" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="48">
         <v>6</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="42">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="37" t="s">
         <v>129</v>
       </c>
       <c r="K11" s="38" t="s">
@@ -3573,59 +3546,59 @@
       <c r="L11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="41" t="s">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="37" t="s">
         <v>137</v>
       </c>
       <c r="K12" s="38" t="s">
@@ -3634,59 +3607,59 @@
       <c r="L12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="41" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="37" t="s">
         <v>140</v>
       </c>
       <c r="K13" s="38" t="s">
@@ -3695,59 +3668,59 @@
       <c r="L13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="41" t="s">
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="42">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="37" t="s">
         <v>146</v>
       </c>
       <c r="K14" s="38" t="s">
@@ -3756,59 +3729,59 @@
       <c r="L14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="41" t="s">
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="37" t="s">
         <v>143</v>
       </c>
       <c r="K15" s="38" t="s">
@@ -3817,59 +3790,59 @@
       <c r="L15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="41" t="s">
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="56">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K16" s="38" t="s">
@@ -3878,59 +3851,59 @@
       <c r="L16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="41" t="s">
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="10">
         <v>15</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="37" t="s">
         <v>147</v>
       </c>
       <c r="K17" s="38" t="s">
@@ -3939,59 +3912,59 @@
       <c r="L17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="41" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="28">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="10">
         <v>16</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="37" t="s">
         <v>229</v>
       </c>
       <c r="K18" s="38" t="s">
@@ -4000,59 +3973,59 @@
       <c r="L18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41" t="s">
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="28">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="37" t="s">
         <v>151</v>
       </c>
       <c r="K19" s="38" t="s">
@@ -4061,57 +4034,57 @@
       <c r="L19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="41" t="s">
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="42">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="10">
         <v>18</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="37" t="s">
         <v>230</v>
       </c>
       <c r="K20" s="38" t="s">
@@ -4120,57 +4093,57 @@
       <c r="L20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="41" t="s">
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="P20" s="40" t="s">
+      <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="10">
         <v>19</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="35" t="s">
         <v>254</v>
       </c>
       <c r="K21" s="38" t="s">
@@ -4179,59 +4152,59 @@
       <c r="L21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="41" t="s">
+      <c r="N21" s="52"/>
+      <c r="O21" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="48">
         <v>6</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="10">
         <v>20</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="37" t="s">
         <v>155</v>
       </c>
       <c r="K22" s="38" t="s">
@@ -4240,57 +4213,57 @@
       <c r="L22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="41" t="s">
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="56">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="10">
         <v>21</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="37" t="s">
         <v>165</v>
       </c>
       <c r="K23" s="38" t="s">
@@ -4299,59 +4272,59 @@
       <c r="L23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42" t="s">
+      <c r="M23" s="52"/>
+      <c r="N23" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="48">
         <v>6</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="10">
         <v>22</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="37" t="s">
         <v>166</v>
       </c>
       <c r="K24" s="38" t="s">
@@ -4360,57 +4333,57 @@
       <c r="L24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="41" t="s">
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="70">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="10">
         <v>23</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="37" t="s">
         <v>163</v>
       </c>
       <c r="K25" s="38" t="s">
@@ -4422,56 +4395,56 @@
       <c r="M25" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="41" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="48">
         <v>6</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="37" t="s">
         <v>172</v>
       </c>
       <c r="K26" s="38" t="s">
@@ -4480,59 +4453,59 @@
       <c r="L26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="41" t="s">
+      <c r="N26" s="52"/>
+      <c r="O26" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="48">
         <v>6</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="28">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="45"/>
+      <c r="G27" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="10">
         <v>25</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="37" t="s">
         <v>177</v>
       </c>
       <c r="K27" s="38" t="s">
@@ -4541,112 +4514,112 @@
       <c r="L27" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="41" t="s">
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="42">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="65" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="15">
         <v>26</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="76" t="s">
+      <c r="M28" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="77" t="s">
+      <c r="N28" s="52"/>
+      <c r="O28" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="P28" s="78" t="s">
+      <c r="P28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="79">
+      <c r="Q28" s="65">
         <v>6</v>
       </c>
-      <c r="R28" s="79" t="s">
+      <c r="R28" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="S28" s="79" t="s">
+      <c r="S28" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="T28" s="79" t="s">
+      <c r="T28" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="U28" s="80" t="s">
+      <c r="U28" s="66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="42">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="33" t="s">
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="10">
         <v>27</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="37" t="s">
         <v>190</v>
       </c>
       <c r="K29" s="38" t="s">
@@ -4655,57 +4628,57 @@
       <c r="L29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42" t="s">
+      <c r="M29" s="52"/>
+      <c r="N29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="48">
         <v>6</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="33" t="s">
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="10">
         <v>28</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="37" t="s">
         <v>192</v>
       </c>
       <c r="K30" s="38" t="s">
@@ -4714,55 +4687,55 @@
       <c r="L30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="41" t="s">
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="P30" s="40" t="s">
+      <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="33" t="s">
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="10">
         <v>29</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="37" t="s">
         <v>100</v>
       </c>
       <c r="K31" s="38" t="s">
@@ -4771,55 +4744,55 @@
       <c r="L31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41" t="s">
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="P31" s="40" t="s">
+      <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="33" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="10">
         <v>30</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="37" t="s">
         <v>196</v>
       </c>
       <c r="K32" s="38" t="s">
@@ -4828,57 +4801,57 @@
       <c r="L32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="41" t="s">
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="P32" s="40" t="s">
+      <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="33" t="s">
+      <c r="F33" s="45"/>
+      <c r="G33" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="10">
         <v>31</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="37" t="s">
         <v>197</v>
       </c>
       <c r="K33" s="38" t="s">
@@ -4887,59 +4860,59 @@
       <c r="L33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="41" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="48">
         <v>6</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="28">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="45"/>
+      <c r="G34" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="10">
         <v>32</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="37" t="s">
         <v>200</v>
       </c>
       <c r="K34" s="38" t="s">
@@ -4948,57 +4921,57 @@
       <c r="L34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="41" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="48">
         <v>6</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U34" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="42">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="33" t="s">
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="10">
         <v>33</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="37" t="s">
         <v>206</v>
       </c>
       <c r="K35" s="38" t="s">
@@ -5007,120 +4980,120 @@
       <c r="L35" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42" t="s">
+      <c r="M35" s="52"/>
+      <c r="N35" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="41" t="s">
+      <c r="O35" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="48">
         <v>6</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="R35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S35" s="13" t="s">
+      <c r="S35" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="28">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="33" t="s">
+      <c r="F36" s="45"/>
+      <c r="G36" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="10">
         <v>34</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="42" t="s">
+      <c r="M36" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42" t="s">
+      <c r="N36" s="52"/>
+      <c r="O36" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="P36" s="40" t="s">
+      <c r="P36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="46">
         <v>6</v>
       </c>
-      <c r="R36" s="14" t="s">
+      <c r="R36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="33" t="s">
+      <c r="F37" s="45"/>
+      <c r="G37" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="10">
         <v>35</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="68" t="s">
         <v>258</v>
       </c>
       <c r="K37" s="38" t="s">
@@ -5129,238 +5102,238 @@
       <c r="L37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="42" t="s">
+      <c r="M37" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="41" t="s">
+      <c r="N37" s="52"/>
+      <c r="O37" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="P37" s="40" t="s">
+      <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="46">
         <v>6</v>
       </c>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T37" s="14" t="s">
+      <c r="T37" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="U37" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="42">
-      <c r="A38" s="68" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="67" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="15">
         <v>36</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="83" t="s">
+      <c r="J38" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="K38" s="84" t="s">
+      <c r="K38" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="L38" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="81"/>
-      <c r="O38" s="86" t="s">
+      <c r="N38" s="72"/>
+      <c r="O38" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="P38" s="40" t="s">
+      <c r="P38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="87">
+      <c r="Q38" s="18">
         <v>6</v>
       </c>
-      <c r="R38" s="88" t="s">
+      <c r="R38" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="S38" s="88" t="s">
+      <c r="S38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T38" s="88" t="s">
+      <c r="T38" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="U38" s="89" t="s">
+      <c r="U38" s="73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="28">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52" t="s">
+      <c r="F39" s="79"/>
+      <c r="G39" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="12">
         <v>37</v>
       </c>
-      <c r="I39" s="54" t="s">
+      <c r="I39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="55" t="s">
+      <c r="J39" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="57" t="s">
+      <c r="L39" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="58" t="s">
+      <c r="M39" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58" t="s">
+      <c r="N39" s="83"/>
+      <c r="O39" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="P39" s="59" t="s">
+      <c r="P39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="60">
+      <c r="Q39" s="84">
         <v>6</v>
       </c>
-      <c r="R39" s="60" t="s">
+      <c r="R39" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="S39" s="60" t="s">
+      <c r="S39" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="T39" s="60" t="s">
+      <c r="T39" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="U39" s="61" t="s">
+      <c r="U39" s="85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="28">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52" t="s">
+      <c r="F40" s="79"/>
+      <c r="G40" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="12">
         <v>38</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="K40" s="56" t="s">
+      <c r="K40" s="81" t="s">
         <v>69</v>
       </c>
       <c r="L40" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58" t="s">
+      <c r="M40" s="83"/>
+      <c r="N40" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="58" t="s">
+      <c r="O40" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="P40" s="59" t="s">
+      <c r="P40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="48">
         <v>6</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="56">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="33" t="s">
+      <c r="F41" s="45"/>
+      <c r="G41" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="10">
         <v>39</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="37" t="s">
         <v>219</v>
       </c>
       <c r="K41" s="38" t="s">
@@ -5369,175 +5342,175 @@
       <c r="L41" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="41" t="s">
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="P41" s="40" t="s">
+      <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="U41" s="2" t="s">
+      <c r="U41" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="28">
-      <c r="A42" s="91" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="94" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="E42" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="10">
         <v>40</v>
       </c>
-      <c r="I42" s="90" t="s">
+      <c r="I42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="73" t="s">
+      <c r="J42" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="K42" s="84" t="s">
+      <c r="K42" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="76" t="s">
+      <c r="M42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="76" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="P42" s="78" t="s">
+      <c r="P42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="87">
+      <c r="Q42" s="18">
         <v>6</v>
       </c>
-      <c r="R42" s="95" t="s">
+      <c r="R42" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="S42" s="95" t="s">
+      <c r="S42" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="T42" s="95" t="s">
+      <c r="T42" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="U42" s="96" t="s">
+      <c r="U42" s="90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="42">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="33" t="s">
+      <c r="F43" s="45"/>
+      <c r="G43" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="10">
         <v>41</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="42" t="s">
+      <c r="M43" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42" t="s">
+      <c r="N43" s="52"/>
+      <c r="O43" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="46">
         <v>6</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S43" s="14" t="s">
+      <c r="S43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T43" s="14" t="s">
+      <c r="T43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="U43" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="33" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="10">
         <v>42</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J44" s="37" t="s">
         <v>187</v>
       </c>
       <c r="K44" s="38" t="s">
@@ -5546,55 +5519,55 @@
       <c r="L44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="41" t="s">
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="P44" s="40" t="s">
+      <c r="P44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="5" customFormat="1">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:21" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="33" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="10">
         <v>43</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="37" t="s">
         <v>183</v>
       </c>
       <c r="K45" s="38" t="s">
@@ -5603,57 +5576,57 @@
       <c r="L45" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="42"/>
-      <c r="O45" s="41" t="s">
+      <c r="N45" s="52"/>
+      <c r="O45" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="P45" s="40" t="s">
+      <c r="P45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="48">
         <v>6</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S45" s="13" t="s">
+      <c r="S45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="T45" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U45" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="33" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="10">
         <v>44</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="J46" s="37" t="s">
         <v>180</v>
       </c>
       <c r="K46" s="38" t="s">
@@ -5662,57 +5635,57 @@
       <c r="L46" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="42" t="s">
+      <c r="M46" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="42"/>
-      <c r="O46" s="41" t="s">
+      <c r="N46" s="52"/>
+      <c r="O46" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="P46" s="40" t="s">
+      <c r="P46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="48">
         <v>6</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="T46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="U46" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="33" t="s">
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="10">
         <v>45</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="35" t="s">
+      <c r="J47" s="37" t="s">
         <v>222</v>
       </c>
       <c r="K47" s="38" t="s">
@@ -5721,57 +5694,57 @@
       <c r="L47" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M47" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="N47" s="42"/>
-      <c r="O47" s="41" t="s">
+      <c r="N47" s="52"/>
+      <c r="O47" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="P47" s="40" t="s">
+      <c r="P47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="48">
         <v>6</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T47" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="33" t="s">
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="10">
         <v>46</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="37" t="s">
         <v>249</v>
       </c>
       <c r="K48" s="38" t="s">
@@ -5780,43 +5753,43 @@
       <c r="L48" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="40" t="s">
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="20" t="s">
+      <c r="Q48" s="48"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="49"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="33" t="s">
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="10">
         <v>47</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="J49" s="37" t="s">
         <v>248</v>
       </c>
       <c r="K49" s="38" t="s">
@@ -5825,1083 +5798,1078 @@
       <c r="L49" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="42" t="s">
+      <c r="M49" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="42"/>
-      <c r="O49" s="41" t="s">
+      <c r="N49" s="52"/>
+      <c r="O49" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="P49" s="40" t="s">
+      <c r="P49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="48">
         <v>6</v>
       </c>
-      <c r="R49" s="13" t="s">
+      <c r="R49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S49" s="13" t="s">
+      <c r="S49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="T49" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28">
-      <c r="A50" s="97" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="H50" s="7">
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="H50" s="2">
         <v>48</v>
       </c>
-      <c r="J50" s="73" t="s">
+      <c r="J50" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="K50" s="100" t="s">
+      <c r="K50" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="101" t="s">
+      <c r="L50" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="102" t="s">
+      <c r="M50" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="99"/>
-      <c r="O50" s="103" t="s">
+      <c r="N50" s="97"/>
+      <c r="O50" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="P50" s="104" t="s">
+      <c r="P50" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="99">
+      <c r="Q50" s="97">
         <v>6</v>
       </c>
-      <c r="R50" s="99" t="s">
+      <c r="R50" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="S50" s="99" t="s">
+      <c r="S50" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="T50" s="99" t="s">
+      <c r="T50" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="U50" s="99" t="s">
+      <c r="U50" s="97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A51" s="43"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="38"/>
       <c r="L51" s="39"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="4"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="49"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A52" s="43"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="47"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="93"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54" s="43"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="38"/>
       <c r="L54" s="39"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="49"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A55" s="43"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="49"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A56" s="43"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="38"/>
       <c r="L56" s="39"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="49"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A57" s="43"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="38"/>
       <c r="L57" s="39"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="49"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A58" s="43"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="38"/>
       <c r="L58" s="39"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="49"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A59" s="43"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="38"/>
       <c r="L59" s="39"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="49"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A60" s="43"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="38"/>
       <c r="L60" s="39"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="49"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A61" s="43"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="38"/>
       <c r="L61" s="39"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="49"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A62" s="43"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="38"/>
       <c r="L62" s="39"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="35"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="49"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A63" s="43"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="37"/>
       <c r="K63" s="38"/>
       <c r="L63" s="39"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="35"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="49"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A64" s="43"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="38"/>
       <c r="L64" s="39"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="49"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" s="43"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="38"/>
       <c r="L65" s="39"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="49"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" s="43"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="38"/>
       <c r="L66" s="39"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="35"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="49"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" s="43"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="37"/>
       <c r="K67" s="38"/>
       <c r="L67" s="39"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="49"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" s="43"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="37"/>
       <c r="K68" s="38"/>
       <c r="L68" s="39"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="49"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" s="43"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="37"/>
       <c r="K69" s="38"/>
       <c r="L69" s="39"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="49"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70" s="43"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="37"/>
       <c r="K70" s="38"/>
       <c r="L70" s="39"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="49"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71" s="43"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="38"/>
       <c r="L71" s="39"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="35"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="48"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="49"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" s="43"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="38"/>
       <c r="L72" s="39"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="35"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="48"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="49"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73" s="43"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="38"/>
       <c r="L73" s="39"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="49"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74" s="43"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="38"/>
       <c r="L74" s="39"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="35"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="49"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" s="43"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="38"/>
       <c r="L75" s="39"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="49"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" s="43"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="38"/>
       <c r="L76" s="39"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="49"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" s="43"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="38"/>
       <c r="L77" s="39"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="49"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" s="43"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="37"/>
       <c r="K78" s="38"/>
       <c r="L78" s="39"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="49"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" s="43"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="37"/>
       <c r="K79" s="38"/>
       <c r="L79" s="39"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="48"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="49"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" s="43"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="38"/>
       <c r="L80" s="39"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="35"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="49"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81" s="43"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="38"/>
       <c r="L81" s="39"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="35"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="49"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82" s="43"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="37"/>
       <c r="K82" s="38"/>
       <c r="L82" s="39"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="49"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A83" s="43"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="38"/>
       <c r="L83" s="39"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="49"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A84" s="43"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="38"/>
       <c r="L84" s="39"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="35"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="49"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A85" s="43"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="38"/>
       <c r="L85" s="39"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="49"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A86" s="43"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="38"/>
       <c r="L86" s="39"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="49"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A87" s="43"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="37"/>
       <c r="K87" s="38"/>
       <c r="L87" s="39"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="1:21">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="49"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A88" s="43"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="38"/>
       <c r="L88" s="39"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="1:21">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="49"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A89" s="43"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="38"/>
       <c r="L89" s="39"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="35"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="49"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A90" s="43"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="37"/>
       <c r="K90" s="38"/>
       <c r="L90" s="39"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="35"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="49"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A91" s="43"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="38"/>
       <c r="L91" s="39"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="1:21">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="49"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A92" s="43"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="38"/>
       <c r="L92" s="39"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="49"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A93" s="43"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="38"/>
       <c r="L93" s="39"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="1:21">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="35"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="52"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="49"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A94" s="43"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="38"/>
       <c r="L94" s="39"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="2"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6917,6 +6885,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6975,634 +6948,634 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="15" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="C9E9" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="558" yWindow="422" windowWidth="25038" windowHeight="13797"/>
+    <workbookView xWindow="555" yWindow="420" windowWidth="25035" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2121,22 +2121,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,6 +2202,21 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="415">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2913,201 +2913,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T50"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.73046875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="45.73046875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="59" style="26" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="92.33203125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="14" style="101" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="101" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="101" customWidth="1"/>
-    <col min="14" max="14" width="8.1328125" style="26" customWidth="1"/>
-    <col min="15" max="15" width="64.33203125" style="26" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
-    <col min="18" max="18" width="7.46484375" style="26" customWidth="1"/>
-    <col min="19" max="19" width="11" style="26" customWidth="1"/>
-    <col min="20" max="20" width="36.46484375" style="26" customWidth="1"/>
-    <col min="21" max="21" width="13.1328125" style="26" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="26"/>
+    <col min="1" max="1" width="10.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="59" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="92.28515625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="14" style="96" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="96" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="96" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="11" style="22" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" style="22" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="22" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28" t="s">
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="31">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="35" t="s">
         <v>262</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="36">
         <v>6</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="30" t="s">
         <v>233</v>
       </c>
       <c r="H4" s="10">
@@ -3116,57 +3116,57 @@
       <c r="I4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="34" t="s">
         <v>263</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="36">
         <v>6</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="30" t="s">
         <v>237</v>
       </c>
       <c r="H5" s="10">
@@ -3175,57 +3175,57 @@
       <c r="I5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>236</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="34" t="s">
         <v>264</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="36">
         <v>6</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="35" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="30" t="s">
         <v>242</v>
       </c>
       <c r="H6" s="10">
@@ -3234,26 +3234,26 @@
       <c r="I6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>55</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="34" t="s">
         <v>288</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <v>6</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -3265,113 +3265,113 @@
       <c r="T6" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="U6" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="31">
         <v>5</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="34" t="s">
         <v>287</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="36">
         <v>6</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="T7" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="34" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="34" t="s">
         <v>289</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="43">
         <v>6</v>
       </c>
       <c r="R8" s="5" t="s">
@@ -3383,28 +3383,28 @@
       <c r="T8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="10">
@@ -3413,24 +3413,24 @@
       <c r="I9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="39" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="34" t="s">
         <v>266</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="41" t="s">
         <v>113</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -3442,30 +3442,30 @@
       <c r="T9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="U9" s="42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="30" t="s">
         <v>131</v>
       </c>
       <c r="H10" s="10">
@@ -3474,26 +3474,26 @@
       <c r="I10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="39" t="s">
+      <c r="N10" s="47"/>
+      <c r="O10" s="34" t="s">
         <v>297</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="43">
         <v>6</v>
       </c>
       <c r="R10" s="5" t="s">
@@ -3505,30 +3505,30 @@
       <c r="T10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="U10" s="49" t="s">
+      <c r="U10" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="30" t="s">
         <v>128</v>
       </c>
       <c r="H11" s="10">
@@ -3537,24 +3537,24 @@
       <c r="I11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="39" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="34" t="s">
         <v>267</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="48" t="s">
+      <c r="Q11" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R11" s="5" t="s">
@@ -3566,30 +3566,30 @@
       <c r="T11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U11" s="49" t="s">
+      <c r="U11" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="30" t="s">
         <v>138</v>
       </c>
       <c r="H12" s="10">
@@ -3598,24 +3598,24 @@
       <c r="I12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="39" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="34" t="s">
         <v>268</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -3627,30 +3627,30 @@
       <c r="T12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="48" t="s">
         <v>139</v>
       </c>
       <c r="H13" s="10">
@@ -3659,24 +3659,24 @@
       <c r="I13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="39" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="34" t="s">
         <v>269</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="48" t="s">
+      <c r="Q13" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -3688,30 +3688,30 @@
       <c r="T13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="49" t="s">
+      <c r="U13" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="30" t="s">
         <v>117</v>
       </c>
       <c r="H14" s="10">
@@ -3720,24 +3720,24 @@
       <c r="I14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="39" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="34" t="s">
         <v>270</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="48" t="s">
+      <c r="Q14" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -3749,30 +3749,30 @@
       <c r="T14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="30" t="s">
         <v>142</v>
       </c>
       <c r="H15" s="10">
@@ -3781,24 +3781,24 @@
       <c r="I15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="39" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="34" t="s">
         <v>271</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="5" t="s">
@@ -3810,30 +3810,30 @@
       <c r="T15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="49" t="s">
+      <c r="U15" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="32" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="10">
@@ -3842,24 +3842,24 @@
       <c r="I16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="39" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="34" t="s">
         <v>272</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="48" t="s">
+      <c r="Q16" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -3871,30 +3871,30 @@
       <c r="T16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="30" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="10">
@@ -3903,24 +3903,24 @@
       <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="39" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="34" t="s">
         <v>279</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="48" t="s">
+      <c r="Q17" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3932,30 +3932,30 @@
       <c r="T17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="30" t="s">
         <v>148</v>
       </c>
       <c r="H18" s="10">
@@ -3964,24 +3964,24 @@
       <c r="I18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="39" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="34" t="s">
         <v>273</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="48" t="s">
+      <c r="Q18" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -3993,30 +3993,30 @@
       <c r="T18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="49" t="s">
+      <c r="U18" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="48" t="s">
         <v>150</v>
       </c>
       <c r="H19" s="10">
@@ -4025,24 +4025,24 @@
       <c r="I19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="39" t="s">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="34" t="s">
         <v>274</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -4054,28 +4054,28 @@
       <c r="T19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U19" s="49" t="s">
+      <c r="U19" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="30" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="10">
@@ -4084,24 +4084,24 @@
       <c r="I20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="39" t="s">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="34" t="s">
         <v>275</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q20" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -4113,28 +4113,28 @@
       <c r="T20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="49" t="s">
+      <c r="U20" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="30" t="s">
         <v>253</v>
       </c>
       <c r="H21" s="10">
@@ -4143,26 +4143,26 @@
       <c r="I21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="39" t="s">
+      <c r="N21" s="47"/>
+      <c r="O21" s="34" t="s">
         <v>276</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="43">
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -4174,28 +4174,28 @@
       <c r="T21" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="35" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="30" t="s">
         <v>154</v>
       </c>
       <c r="H22" s="10">
@@ -4204,24 +4204,24 @@
       <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="39" t="s">
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="34" t="s">
         <v>277</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="48" t="s">
+      <c r="Q22" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -4233,28 +4233,28 @@
       <c r="T22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="49" t="s">
+      <c r="U22" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="30" t="s">
         <v>156</v>
       </c>
       <c r="H23" s="10">
@@ -4263,26 +4263,26 @@
       <c r="I23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52" t="s">
+      <c r="M23" s="47"/>
+      <c r="N23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="34" t="s">
         <v>160</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="43">
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -4294,28 +4294,28 @@
       <c r="T23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="U23" s="49" t="s">
+      <c r="U23" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="35" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="30" t="s">
         <v>97</v>
       </c>
       <c r="H24" s="10">
@@ -4324,24 +4324,24 @@
       <c r="I24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="39" t="s">
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="34" t="s">
         <v>136</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="48" t="s">
+      <c r="Q24" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -4353,28 +4353,28 @@
       <c r="T24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="U24" s="49" t="s">
+      <c r="U24" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="35" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="30" t="s">
         <v>169</v>
       </c>
       <c r="H25" s="10">
@@ -4383,26 +4383,26 @@
       <c r="I25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="39" t="s">
+      <c r="N25" s="47"/>
+      <c r="O25" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="43">
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
@@ -4414,28 +4414,28 @@
       <c r="T25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="35" t="s">
+      <c r="F26" s="40"/>
+      <c r="G26" s="30" t="s">
         <v>173</v>
       </c>
       <c r="H26" s="10">
@@ -4444,26 +4444,26 @@
       <c r="I26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="39" t="s">
+      <c r="N26" s="47"/>
+      <c r="O26" s="34" t="s">
         <v>283</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="43">
         <v>6</v>
       </c>
       <c r="R26" s="5" t="s">
@@ -4475,28 +4475,28 @@
       <c r="T26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="43" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="35" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="30" t="s">
         <v>256</v>
       </c>
       <c r="H27" s="10">
@@ -4505,53 +4505,53 @@
       <c r="I27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="39" t="s">
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="34" t="s">
         <v>255</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="48" t="s">
+      <c r="Q27" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="S27" s="48" t="s">
+      <c r="S27" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="48" t="s">
+      <c r="U27" s="43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="54" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60" t="s">
+      <c r="F28" s="54"/>
+      <c r="G28" s="55" t="s">
         <v>299</v>
       </c>
       <c r="H28" s="15">
@@ -4560,57 +4560,57 @@
       <c r="I28" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="64" t="s">
+      <c r="M28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="63" t="s">
+      <c r="N28" s="47"/>
+      <c r="O28" s="58" t="s">
         <v>313</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="65">
+      <c r="Q28" s="60">
         <v>6</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="R28" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="S28" s="65" t="s">
+      <c r="S28" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="T28" s="65" t="s">
+      <c r="T28" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="U28" s="66" t="s">
+      <c r="U28" s="61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="35" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="30" t="s">
         <v>191</v>
       </c>
       <c r="H29" s="10">
@@ -4619,26 +4619,26 @@
       <c r="I29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="J29" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="38" t="s">
+      <c r="K29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52" t="s">
+      <c r="M29" s="47"/>
+      <c r="N29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="34" t="s">
         <v>280</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="43">
         <v>6</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -4650,26 +4650,26 @@
       <c r="T29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="35" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="30" t="s">
         <v>98</v>
       </c>
       <c r="H30" s="10">
@@ -4678,24 +4678,24 @@
       <c r="I30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="39" t="s">
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="34" t="s">
         <v>278</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="48" t="s">
+      <c r="Q30" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4707,26 +4707,26 @@
       <c r="T30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="35" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="30" t="s">
         <v>99</v>
       </c>
       <c r="H31" s="10">
@@ -4735,24 +4735,24 @@
       <c r="I31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="39" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="34" t="s">
         <v>278</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="48" t="s">
+      <c r="Q31" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R31" s="5" t="s">
@@ -4764,26 +4764,26 @@
       <c r="T31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="35" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="30" t="s">
         <v>194</v>
       </c>
       <c r="H32" s="10">
@@ -4792,24 +4792,24 @@
       <c r="I32" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="K32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="39" t="s">
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="34" t="s">
         <v>278</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="48" t="s">
+      <c r="Q32" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R32" s="5" t="s">
@@ -4821,28 +4821,28 @@
       <c r="T32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U32" s="49" t="s">
+      <c r="U32" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="35" t="s">
+      <c r="F33" s="40"/>
+      <c r="G33" s="30" t="s">
         <v>257</v>
       </c>
       <c r="H33" s="10">
@@ -4851,26 +4851,26 @@
       <c r="I33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="39" t="s">
+      <c r="N33" s="47"/>
+      <c r="O33" s="34" t="s">
         <v>281</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="48">
+      <c r="Q33" s="43">
         <v>6</v>
       </c>
       <c r="R33" s="5" t="s">
@@ -4882,28 +4882,28 @@
       <c r="T33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="U33" s="49" t="s">
+      <c r="U33" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="35" t="s">
+      <c r="F34" s="40"/>
+      <c r="G34" s="30" t="s">
         <v>199</v>
       </c>
       <c r="H34" s="10">
@@ -4912,26 +4912,26 @@
       <c r="I34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J34" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="52" t="s">
+      <c r="M34" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="39" t="s">
+      <c r="N34" s="47"/>
+      <c r="O34" s="34" t="s">
         <v>282</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="43">
         <v>6</v>
       </c>
       <c r="R34" s="5" t="s">
@@ -4943,26 +4943,26 @@
       <c r="T34" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U34" s="49" t="s">
+      <c r="U34" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A35" s="43" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="35" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="30" t="s">
         <v>91</v>
       </c>
       <c r="H35" s="10">
@@ -4971,26 +4971,26 @@
       <c r="I35" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52" t="s">
+      <c r="M35" s="47"/>
+      <c r="N35" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="34" t="s">
         <v>284</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="48">
+      <c r="Q35" s="43">
         <v>6</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -5002,28 +5002,28 @@
       <c r="T35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U35" s="49" t="s">
+      <c r="U35" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A36" s="43" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="35" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="30" t="s">
         <v>212</v>
       </c>
       <c r="H36" s="10">
@@ -5032,26 +5032,26 @@
       <c r="I36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="67" t="s">
+      <c r="K36" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="52" t="s">
+      <c r="L36" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="52" t="s">
+      <c r="M36" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52" t="s">
+      <c r="N36" s="47"/>
+      <c r="O36" s="47" t="s">
         <v>285</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="41">
         <v>6</v>
       </c>
       <c r="R36" s="6" t="s">
@@ -5063,28 +5063,28 @@
       <c r="T36" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="U36" s="47" t="s">
+      <c r="U36" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A37" s="43" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="35" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="30" t="s">
         <v>259</v>
       </c>
       <c r="H37" s="10">
@@ -5093,26 +5093,26 @@
       <c r="I37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="68" t="s">
+      <c r="J37" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="K37" s="38" t="s">
+      <c r="K37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="39" t="s">
+      <c r="L37" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="39" t="s">
+      <c r="N37" s="47"/>
+      <c r="O37" s="34" t="s">
         <v>286</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="41">
         <v>6</v>
       </c>
       <c r="R37" s="6" t="s">
@@ -5124,24 +5124,24 @@
       <c r="T37" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="U37" s="47" t="s">
+      <c r="U37" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A38" s="54" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="60" t="s">
+      <c r="E38" s="53"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="55" t="s">
         <v>304</v>
       </c>
       <c r="H38" s="15">
@@ -5150,20 +5150,20 @@
       <c r="I38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="J38" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K38" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="72"/>
-      <c r="O38" s="71" t="s">
+      <c r="N38" s="67"/>
+      <c r="O38" s="66" t="s">
         <v>306</v>
       </c>
       <c r="P38" s="11" t="s">
@@ -5181,28 +5181,28 @@
       <c r="T38" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="U38" s="73" t="s">
+      <c r="U38" s="68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A39" s="74" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80" t="s">
+      <c r="F39" s="74"/>
+      <c r="G39" s="75" t="s">
         <v>214</v>
       </c>
       <c r="H39" s="12">
@@ -5211,59 +5211,59 @@
       <c r="I39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="80" t="s">
+      <c r="J39" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="82" t="s">
+      <c r="L39" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="83" t="s">
+      <c r="M39" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83" t="s">
+      <c r="N39" s="78"/>
+      <c r="O39" s="78" t="s">
         <v>290</v>
       </c>
       <c r="P39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="84">
+      <c r="Q39" s="79">
         <v>6</v>
       </c>
-      <c r="R39" s="84" t="s">
+      <c r="R39" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="S39" s="84" t="s">
+      <c r="S39" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="T39" s="84" t="s">
+      <c r="T39" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="U39" s="85" t="s">
+      <c r="U39" s="80" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A40" s="74" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80" t="s">
+      <c r="F40" s="74"/>
+      <c r="G40" s="75" t="s">
         <v>220</v>
       </c>
       <c r="H40" s="12">
@@ -5272,26 +5272,26 @@
       <c r="I40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83" t="s">
+      <c r="M40" s="78"/>
+      <c r="N40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="83" t="s">
+      <c r="O40" s="78" t="s">
         <v>291</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="48">
+      <c r="Q40" s="43">
         <v>6</v>
       </c>
       <c r="R40" s="5" t="s">
@@ -5303,28 +5303,28 @@
       <c r="T40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="U40" s="49" t="s">
+      <c r="U40" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A41" s="74" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="35" t="s">
+      <c r="F41" s="40"/>
+      <c r="G41" s="30" t="s">
         <v>218</v>
       </c>
       <c r="H41" s="10">
@@ -5333,24 +5333,24 @@
       <c r="I41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="39" t="s">
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="34" t="s">
         <v>292</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="48" t="s">
+      <c r="Q41" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R41" s="5" t="s">
@@ -5362,26 +5362,26 @@
       <c r="T41" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="U41" s="49" t="s">
+      <c r="U41" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A42" s="86" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="89" t="s">
+      <c r="C42" s="83"/>
+      <c r="D42" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="60" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="55" t="s">
         <v>310</v>
       </c>
       <c r="H42" s="10">
@@ -5390,20 +5390,20 @@
       <c r="I42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="61" t="s">
+      <c r="J42" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="K42" s="70" t="s">
+      <c r="K42" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="64" t="s">
+      <c r="L42" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="64" t="s">
+      <c r="M42" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="64" t="s">
+      <c r="N42" s="47"/>
+      <c r="O42" s="59" t="s">
         <v>312</v>
       </c>
       <c r="P42" s="16" t="s">
@@ -5421,28 +5421,28 @@
       <c r="T42" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="U42" s="90" t="s">
+      <c r="U42" s="85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A43" s="74" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="35" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="30" t="s">
         <v>252</v>
       </c>
       <c r="H43" s="10">
@@ -5451,26 +5451,26 @@
       <c r="I43" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="K43" s="67" t="s">
+      <c r="K43" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="52" t="s">
+      <c r="L43" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52" t="s">
+      <c r="N43" s="47"/>
+      <c r="O43" s="47" t="s">
         <v>293</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="41">
         <v>6</v>
       </c>
       <c r="R43" s="6" t="s">
@@ -5482,26 +5482,26 @@
       <c r="T43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="U43" s="47" t="s">
+      <c r="U43" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A44" s="43" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="35" t="s">
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="30" t="s">
         <v>186</v>
       </c>
       <c r="H44" s="10">
@@ -5510,24 +5510,24 @@
       <c r="I44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="K44" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="39" t="s">
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="34" t="s">
         <v>294</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="43" t="s">
         <v>113</v>
       </c>
       <c r="R44" s="5" t="s">
@@ -5539,26 +5539,26 @@
       <c r="T44" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="U44" s="49" t="s">
+      <c r="U44" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="43" t="s">
+    <row r="45" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="D45" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="35" t="s">
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="30" t="s">
         <v>182</v>
       </c>
       <c r="H45" s="10">
@@ -5567,26 +5567,26 @@
       <c r="I45" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="K45" s="38" t="s">
+      <c r="K45" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="39" t="s">
+      <c r="N45" s="47"/>
+      <c r="O45" s="34" t="s">
         <v>295</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="48">
+      <c r="Q45" s="43">
         <v>6</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -5598,26 +5598,26 @@
       <c r="T45" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="U45" s="49" t="s">
+      <c r="U45" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A46" s="43" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="91" t="s">
+      <c r="D46" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="35" t="s">
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="30" t="s">
         <v>179</v>
       </c>
       <c r="H46" s="10">
@@ -5626,26 +5626,26 @@
       <c r="I46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="J46" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="39" t="s">
+      <c r="L46" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="52" t="s">
+      <c r="M46" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="39" t="s">
+      <c r="N46" s="47"/>
+      <c r="O46" s="34" t="s">
         <v>181</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="48">
+      <c r="Q46" s="43">
         <v>6</v>
       </c>
       <c r="R46" s="5" t="s">
@@ -5657,26 +5657,26 @@
       <c r="T46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="U46" s="49" t="s">
+      <c r="U46" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="35" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="30" t="s">
         <v>251</v>
       </c>
       <c r="H47" s="10">
@@ -5685,26 +5685,26 @@
       <c r="I47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="52" t="s">
+      <c r="M47" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="39" t="s">
+      <c r="N47" s="47"/>
+      <c r="O47" s="34" t="s">
         <v>296</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="48">
+      <c r="Q47" s="43">
         <v>6</v>
       </c>
       <c r="R47" s="5" t="s">
@@ -5716,26 +5716,26 @@
       <c r="T47" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="U47" s="49" t="s">
+      <c r="U47" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A48" s="43" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="35" t="s">
+      <c r="E48" s="87"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="30" t="s">
         <v>204</v>
       </c>
       <c r="H48" s="10">
@@ -5744,43 +5744,43 @@
       <c r="I48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="37" t="s">
+      <c r="J48" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="39"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="34"/>
       <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="48"/>
+      <c r="Q48" s="43"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="49"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A49" s="43" t="s">
+      <c r="U48" s="44"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="35" t="s">
+      <c r="E49" s="87"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="30" t="s">
         <v>205</v>
       </c>
       <c r="H49" s="10">
@@ -5789,26 +5789,26 @@
       <c r="I49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="J49" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="K49" s="38" t="s">
+      <c r="K49" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="52" t="s">
+      <c r="M49" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="39" t="s">
+      <c r="N49" s="47"/>
+      <c r="O49" s="34" t="s">
         <v>221</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="48">
+      <c r="Q49" s="43">
         <v>6</v>
       </c>
       <c r="R49" s="5" t="s">
@@ -5820,1056 +5820,1061 @@
       <c r="T49" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="U49" s="49" t="s">
+      <c r="U49" s="44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A50" s="95" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="H50" s="2">
         <v>48</v>
       </c>
-      <c r="J50" s="61" t="s">
+      <c r="J50" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="K50" s="98" t="s">
+      <c r="K50" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="99" t="s">
+      <c r="L50" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="100" t="s">
+      <c r="M50" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97" t="s">
+      <c r="N50" s="92"/>
+      <c r="O50" s="92" t="s">
         <v>315</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="97">
+      <c r="Q50" s="92">
         <v>6</v>
       </c>
-      <c r="R50" s="97" t="s">
+      <c r="R50" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="S50" s="97" t="s">
+      <c r="S50" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="T50" s="97" t="s">
+      <c r="T50" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="U50" s="97" t="s">
+      <c r="U50" s="92" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A51" s="43"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="35"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="39"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="34"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="48"/>
+      <c r="Q51" s="43"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="49"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A52" s="43"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="35"/>
+      <c r="U51" s="44"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="30"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="46"/>
+      <c r="Q52" s="41"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="47"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A53" s="74"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="93"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A54" s="43"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="35"/>
+      <c r="U52" s="42"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="88"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="39"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="34"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="48"/>
+      <c r="Q54" s="43"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="49"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A55" s="43"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="35"/>
+      <c r="U54" s="44"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="39"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="34"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="48"/>
+      <c r="Q55" s="43"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="49"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A56" s="43"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="35"/>
+      <c r="U55" s="44"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="39"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="48"/>
+      <c r="Q56" s="43"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="49"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A57" s="43"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="35"/>
+      <c r="U56" s="44"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="39"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="34"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="48"/>
+      <c r="Q57" s="43"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="49"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A58" s="43"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="35"/>
+      <c r="U57" s="44"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="39"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="48"/>
+      <c r="Q58" s="43"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="49"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A59" s="43"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="35"/>
+      <c r="U58" s="44"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="39"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="34"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="48"/>
+      <c r="Q59" s="43"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="49"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A60" s="43"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="35"/>
+      <c r="U59" s="44"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="39"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="34"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="48"/>
+      <c r="Q60" s="43"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="49"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A61" s="43"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="35"/>
+      <c r="U60" s="44"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="39"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="34"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="48"/>
+      <c r="Q61" s="43"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="49"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A62" s="43"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="35"/>
+      <c r="U61" s="44"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="39"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="48"/>
+      <c r="Q62" s="43"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="49"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A63" s="43"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="35"/>
+      <c r="U62" s="44"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="39"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="34"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="48"/>
+      <c r="Q63" s="43"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="49"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A64" s="43"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="35"/>
+      <c r="U63" s="44"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="39"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="34"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="48"/>
+      <c r="Q64" s="43"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="49"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A65" s="43"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="35"/>
+      <c r="U64" s="44"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="30"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="39"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="34"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="48"/>
+      <c r="Q65" s="43"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="49"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A66" s="43"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="35"/>
+      <c r="U65" s="44"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="30"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="39"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="34"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="48"/>
+      <c r="Q66" s="43"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="49"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A67" s="43"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="35"/>
+      <c r="U66" s="44"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="30"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="39"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="34"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="48"/>
+      <c r="Q67" s="43"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="49"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A68" s="43"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="35"/>
+      <c r="U67" s="44"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="30"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="39"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="34"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="48"/>
+      <c r="Q68" s="43"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="49"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A69" s="43"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="35"/>
+      <c r="U68" s="44"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="39"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="34"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="48"/>
+      <c r="Q69" s="43"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="49"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A70" s="43"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="35"/>
+      <c r="U69" s="44"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="39"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="34"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="48"/>
+      <c r="Q70" s="43"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="49"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A71" s="43"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="35"/>
+      <c r="U70" s="44"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="30"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="39"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="34"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="48"/>
+      <c r="Q71" s="43"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="49"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A72" s="43"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="35"/>
+      <c r="U71" s="44"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="30"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="39"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="34"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="48"/>
+      <c r="Q72" s="43"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="49"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A73" s="43"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="35"/>
+      <c r="U72" s="44"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="30"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="39"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="34"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="48"/>
+      <c r="Q73" s="43"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="49"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A74" s="43"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="35"/>
+      <c r="U73" s="44"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="39"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="34"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="48"/>
+      <c r="Q74" s="43"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="49"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A75" s="43"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="35"/>
+      <c r="U74" s="44"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="39"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="34"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="48"/>
+      <c r="Q75" s="43"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="49"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A76" s="43"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="35"/>
+      <c r="U75" s="44"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="30"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="39"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="34"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="48"/>
+      <c r="Q76" s="43"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="49"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A77" s="43"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="35"/>
+      <c r="U76" s="44"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="30"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="39"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="34"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="48"/>
+      <c r="Q77" s="43"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="49"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A78" s="43"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="35"/>
+      <c r="U77" s="44"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="30"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="39"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="34"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="48"/>
+      <c r="Q78" s="43"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="49"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A79" s="43"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="35"/>
+      <c r="U78" s="44"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="39"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="34"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="48"/>
+      <c r="Q79" s="43"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="49"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A80" s="43"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="35"/>
+      <c r="U79" s="44"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="30"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="39"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="34"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="48"/>
+      <c r="Q80" s="43"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="49"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A81" s="43"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="35"/>
+      <c r="U80" s="44"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="30"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="39"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="34"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="48"/>
+      <c r="Q81" s="43"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="49"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A82" s="43"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="35"/>
+      <c r="U81" s="44"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="30"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="39"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="34"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="48"/>
+      <c r="Q82" s="43"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="49"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A83" s="43"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="35"/>
+      <c r="U82" s="44"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="30"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="39"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="34"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="48"/>
+      <c r="Q83" s="43"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="49"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A84" s="43"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="35"/>
+      <c r="U83" s="44"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="39"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="34"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="48"/>
+      <c r="Q84" s="43"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="49"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A85" s="43"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="35"/>
+      <c r="U84" s="44"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="30"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="39"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="34"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="48"/>
+      <c r="Q85" s="43"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="49"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A86" s="43"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="35"/>
+      <c r="U85" s="44"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="30"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="39"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="34"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="48"/>
+      <c r="Q86" s="43"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="49"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A87" s="43"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="35"/>
+      <c r="U86" s="44"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="30"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="39"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="34"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="48"/>
+      <c r="Q87" s="43"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="49"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A88" s="43"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="35"/>
+      <c r="U87" s="44"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="30"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="39"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="34"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="48"/>
+      <c r="Q88" s="43"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="49"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A89" s="43"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="35"/>
+      <c r="U88" s="44"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="30"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="39"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="34"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="48"/>
+      <c r="Q89" s="43"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="49"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A90" s="43"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="35"/>
+      <c r="U89" s="44"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="30"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="39"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="34"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="48"/>
+      <c r="Q90" s="43"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="49"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A91" s="43"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="35"/>
+      <c r="U90" s="44"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="30"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="39"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="34"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="48"/>
+      <c r="Q91" s="43"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="49"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A92" s="43"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="35"/>
+      <c r="U91" s="44"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="38"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="30"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="52"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="39"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="34"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="48"/>
+      <c r="Q92" s="43"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="49"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A93" s="43"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="35"/>
+      <c r="U92" s="44"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="30"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="52"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="39"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="34"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="48"/>
+      <c r="Q93" s="43"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
-      <c r="U93" s="49"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A94" s="43"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="35"/>
+      <c r="U93" s="44"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="38"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="30"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="39"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="34"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="48"/>
+      <c r="Q94" s="43"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
-      <c r="U94" s="49"/>
+      <c r="U94" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -6885,11 +6890,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6948,16 +6948,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -7001,7 +7001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -7022,7 +7022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>39</v>
@@ -7084,7 +7084,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>40</v>
@@ -7097,7 +7097,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>41</v>
@@ -7110,7 +7110,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>42</v>
@@ -7123,7 +7123,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
@@ -7138,7 +7138,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
@@ -7153,7 +7153,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>45</v>
@@ -7168,7 +7168,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
@@ -7183,7 +7183,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -7196,7 +7196,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -7209,7 +7209,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -7222,7 +7222,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -7235,7 +7235,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -7248,7 +7248,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -7261,7 +7261,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -7274,7 +7274,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -7287,7 +7287,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -7300,7 +7300,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -7313,7 +7313,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -7324,7 +7324,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -7335,7 +7335,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -7346,7 +7346,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -7357,7 +7357,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -7368,7 +7368,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -7379,7 +7379,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -7390,7 +7390,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -7401,7 +7401,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -7412,7 +7412,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -7423,7 +7423,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -7434,7 +7434,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -7445,7 +7445,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
@@ -7456,7 +7456,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -7467,7 +7467,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -7478,7 +7478,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7487,7 +7487,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7496,7 +7496,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7505,7 +7505,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7514,7 +7514,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7523,7 +7523,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7532,7 +7532,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7541,7 +7541,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7550,7 +7550,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7559,7 +7559,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7568,7 +7568,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>

--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado10\guion01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="420" windowWidth="25035" windowHeight="13800"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="322">
   <si>
     <t>Asignatura</t>
   </si>
@@ -766,9 +761,6 @@
     <t>Recurso M11A-01</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: resuelve el crucigrama de palabras con "h"</t>
-  </si>
-  <si>
     <t>Actividad lúdica para practicar la ortografía de palabras con "h"</t>
   </si>
   <si>
@@ -809,9 +801,6 @@
   </si>
   <si>
     <t>Actividad con audio para practicar el ejercicio de titular párrafos de análisis literarios</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: las características del análisis de un texto literario</t>
   </si>
   <si>
     <t>Actividad sobre el análisis literario y sus características</t>
@@ -919,15 +908,9 @@
     <t>Interactivo que presenta y analiza varias obras de la literatura medieval española</t>
   </si>
   <si>
-    <t xml:space="preserve">Responde las preguntas a partir de los fragmentos literarios de la Edad Media </t>
-  </si>
-  <si>
     <t>Recurso M2C-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Selecciona en el texto la palabra escrita correctamente </t>
-  </si>
-  <si>
     <t>Actividad para realizar un diagnóstico sobre la utilización correcta de la "h"</t>
   </si>
   <si>
@@ -937,9 +920,6 @@
     <t>M6B</t>
   </si>
   <si>
-    <t xml:space="preserve">Escucha con atención y transcribe de forma correcta </t>
-  </si>
-  <si>
     <t>Recurso M5D-03</t>
   </si>
   <si>
@@ -952,21 +932,12 @@
     <t>Actividad diagnóstica con audios sobre el uso de la "h"</t>
   </si>
   <si>
-    <t>Escucha el siguiente fragmento de un análisis literario y ordena las ideas</t>
-  </si>
-  <si>
     <t>Actividad diagnóstica de comprensión sobre el análisis literario</t>
   </si>
   <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>Determina en cada caso si el texto se trata de un análisis literario</t>
-  </si>
-  <si>
-    <t>Escribe un comentario sobre el análisis literario con base en la lectura</t>
-  </si>
-  <si>
     <t>Actividad para exponer en un texto las observaciones iniciales sobre el análisis literario</t>
   </si>
   <si>
@@ -982,23 +953,203 @@
     <t>La estructura de un análisis literario</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los aspectos básicos del análisis literario</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La literatura española de la Edad Media</t>
-  </si>
-  <si>
     <t>Actividad sobre las claves para recordar el contexto cultural de la Edad Media</t>
   </si>
   <si>
     <t>Reemplazar oraciones del "castellano español" (el mono...) al "colombiano". Revisar Fichas y corregirlas. Observar que cambia el titulo y la descripción.</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Lingüística: el signo lingüístico </t>
+    <t>Actividad para determinar el propósito de diferentes fragmentos de análisis literarios</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Interactivo para aprender a realizar un análisis literario</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 11) Proponer 5 preguntas de interpretación fundamentalmente, a partir de fragmentos de obras literarias medievales españolas (pueden ser todos de una misma obra o no).</t>
+  </si>
+  <si>
+    <t>(DBA: 10) A partir de un texto proponer varias opciones de escritura para las palabras con "h" (una de ellas correcta). Para hacerlo más interesante, proponer también en otras palabras opciones de escritura con "h", pero incorrectas.</t>
+  </si>
+  <si>
+    <t>(DBA: 10) Dictado para la escritura correcta de palabras con "h". Que no sean solo palabras sino oraciones. Tener en cuenta la homofonía, por ejemplo, "ha" y "a", etc.</t>
+  </si>
+  <si>
+    <t>Actividad para aprender a diferenciar un análisis literario de otros tipos de texto</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 4, 12) De presentarse, cambiar expresiones, desinencias y otros al "español colombiano". Revisar Fichas. Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Pasar la diapositiva sobre "novela de aventuras y caballeresca" antes de las de "prosa didáctica".</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(DBA: 1, 2, 3, 11) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Cambiar las preguntas de la Actividad sobre los tipos de verso si no se explican en otro lugar. Podría ser interesante proponer en algún lugar que los estudiantes intenten una traducción del fragmento al español actual. </t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 3, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Cambiar los titulos "La lírica popular" y "El mester de juglaría" para que no se tornen blancos, el mismo color del fondo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 3, 4, 5) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 3, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Proponer en el enunciado del audio sobre el mester de clerecía (Milagros de nuestra señora) alguna actividad sencilla para que los estudiantes realicen a partir del mismo. Reformular la Actividad asociada al audio de Manrique.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4, 10, 11) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 3, 11) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4, 11, 12) De presentarse, cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. A lo mejor hay que reformular algunas preguntas de las actividades.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 4) Recurso elaborado por el autor. Aprobado para digitalizar. Obervar que se modifica el titulo y la descripción.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4, 5) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 10) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2, 4, 11) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t>(DBA: 10) Usar las pestañas para enunciar los diferentes usos de la h y mostrar ejemplos y listas de palabras. La idea es que las imágenes aligeren la visualización del interactivo, así que pueden ilustrar oraciones de los ejemplos.</t>
+  </si>
+  <si>
+    <t>(DBA: 10) Adaptar un texto en el que predominen palabras con "h", ya sea que empiecen con ella o no.</t>
+  </si>
+  <si>
+    <t>(DBA: 10) Diseñar un crucigrama de palabras con "h", ya sea que empiecen con ella o no, y que no sea demasiado fácil. Usar palabras poco comunes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A un significado dado asociar diferentes imágenes (significantes) que se encuentren habitualmente en la ciudad, el hogar o la vida diaria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(DBA: 3, 6, 7) A partir de una lectura -un análisis literario de una obra medieval española-, definir o explicar conceptos básicos del análisis literario como personajes, argumento, estructura de la obra, contexto histórico/social, género, estilo, en fin. </t>
+  </si>
+  <si>
+    <t>(DBA: 3) Definir textos para que sean grabados para los que el estudiante asigne un titulo que encierre la idea principal</t>
+  </si>
+  <si>
+    <t>(DBA: 3) A partir de fragmentos de análisis literarios (pueden ser citas), el estudiante deberá señalar entre varias opciones la intención o finalidad de cada uno.</t>
+  </si>
+  <si>
+    <t>(DBA: 3) De acuerdo a la lectura, presentar diferentes fragmentos para preguntar en cada uno al estudiante si se trata de análisis literario o no.</t>
+  </si>
+  <si>
+    <t>(DBA: 3) A partir de un fragmento de análisis literario (podría ser de la lectura diagnóstica) proponer una serie de ideas para ser organizadas consecutivamente. Dependiendo de la extención del audio, podría tratar sobre la estructura, el orden de aparición o la finalidad de cada parte del texto.</t>
+  </si>
+  <si>
+    <t>(DBA: 2, 3, 6, 9) La idea es que el estudiante identifique por su propia observación, cuáles son las características y propósito del análisis literario y lo exponga en un texto.</t>
+  </si>
+  <si>
+    <t>(DBA: 3) Preguntas sobre el análisis de textos literarios: características, conceptos, intención.</t>
+  </si>
+  <si>
+    <t>(DBA: 3, 6, 7, 8, 9) Instrucciones para realizar un análisis literario de acuerdo a lo expuesto en la sección anterior (Introducción, Proceso, Conclusiones, Preguntas...)</t>
+  </si>
+  <si>
+    <t>(DBA: 3, 6, 7, 8, 9) Corregir "edad media" por "Edad Media" en todos los casos. Reformular las intrucciones del botón "Investiga", incluso del "Comprensión", de modo que sea explícito que el estudiante está realizando un análisis literario. Observar que cambia titulo y descripción.</t>
+  </si>
+  <si>
+    <t>(DBA: 3) El estudiante deberá arrastrar definiciones breves de los conceptos: personajes, argumento, estructura de la obra, contexto histórico/social… (se deben ajustar a lo expuesto en el interactivo del subtema: El análisis literario).</t>
+  </si>
+  <si>
+    <t>(DBA: 1, 2) Observar que cambia el titulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RBA: 1, 4) Recurso elaborado por el autor. Aprobado para digitalizar. </t>
+  </si>
+  <si>
+    <t>(DBA: 3) Subir un análisis literario no muy extenso en pdf, ya sea propio o de autor, que presente una estructura claramente identificable.</t>
+  </si>
+  <si>
+    <t>(DBA: 4, 13, 14) Recurso elaborado por el autor. Aprobado para digitalizar. Obervar que la descripción se modifica un poco. A su vez, dar más claridad en el Enunciado Principal (Instrucción), que se entienda cómo va a desarrollarse la parte de la exposición a la clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comprender las características del signo lingüístico </t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para desarrollar habilidades lectoras </t>
+  </si>
+  <si>
+    <t>Proponer ejercicio para aplicar la estrategia de titular párrafos. Se les pueden dar los párrafos y también ponerlos a reflexionar sobre esta estrategia, que digan por qué es útil, cuándo la emplearían…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM </t>
+  </si>
+  <si>
+    <t>Recursos M101A-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producción escrita: el análisis de textos literarios  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El análisis literario </t>
+  </si>
+  <si>
+    <t>Actividad para aplicar los conocimientos de la literatura española medieval en un análisis literario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer un fragmento de la literatura medieval ESPAÑOLA y elaborar preguntas que apunten al análisis literario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer consultar sobre el signo lingüístico y algunos autores como Saussure y Pierce. Para llegar a conclusiones sobre lo que es el signo lingüístico. Proponer preguntas que busquen analizar lo que dice cada uno. </t>
+  </si>
+  <si>
+    <t>Recursos M101A-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe incluirse 10 preguntas. 3 de la sección de literatura. 2 de lingüística. 2 de ortografía. 2 de comprensión y 1 de Producción. </t>
+  </si>
+  <si>
+    <t>Recurso M101AP</t>
+  </si>
+  <si>
+    <t>Ortografía: el uso correcto de la "h"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura: responde las preguntas a partir de los fragmentos literarios de la Edad Media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía: selecciona en el texto la palabra escrita correctamente </t>
+  </si>
+  <si>
+    <t>Lectura crítica: ordena las ideas de un análisis literario</t>
+  </si>
+  <si>
+    <t>Lectura crítica: determina si el texto se trata de un análisis literario</t>
+  </si>
+  <si>
+    <t>Producción escrita: escribe un comentario sobre el análisis literario</t>
+  </si>
+  <si>
+    <t>El contexto cultural medieval</t>
+  </si>
+  <si>
+    <t>Las relaciones entre palabras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El signo lingüístico </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Refuerza tu aprendizaje: Ortografía: el grafema </t>
+      <t xml:space="preserve">Refuerza tu aprendizaje: El grafema </t>
     </r>
     <r>
       <rPr>
@@ -1013,197 +1164,47 @@
     </r>
   </si>
   <si>
-    <t>Actividad para determinar el propósito de diferentes fragmentos de análisis literarios</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Lectura crítica: el análisis de textos literarios</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Interactivo para aprender a realizar un análisis literario</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 11) Proponer 5 preguntas de interpretación fundamentalmente, a partir de fragmentos de obras literarias medievales españolas (pueden ser todos de una misma obra o no).</t>
-  </si>
-  <si>
-    <t>(DBA: 10) A partir de un texto proponer varias opciones de escritura para las palabras con "h" (una de ellas correcta). Para hacerlo más interesante, proponer también en otras palabras opciones de escritura con "h", pero incorrectas.</t>
-  </si>
-  <si>
-    <t>(DBA: 10) Dictado para la escritura correcta de palabras con "h". Que no sean solo palabras sino oraciones. Tener en cuenta la homofonía, por ejemplo, "ha" y "a", etc.</t>
-  </si>
-  <si>
-    <t>Actividad para aprender a diferenciar un análisis literario de otros tipos de texto</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 4, 12) De presentarse, cambiar expresiones, desinencias y otros al "español colombiano". Revisar Fichas. Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Pasar la diapositiva sobre "novela de aventuras y caballeresca" antes de las de "prosa didáctica".</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(DBA: 1, 2, 3, 11) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Cambiar las preguntas de la Actividad sobre los tipos de verso si no se explican en otro lugar. Podría ser interesante proponer en algún lugar que los estudiantes intenten una traducción del fragmento al español actual. </t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 3, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Cambiar los titulos "La lírica popular" y "El mester de juglaría" para que no se tornen blancos, el mismo color del fondo.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 3, 4, 5) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 3, 4, 11, 12) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. Proponer en el enunciado del audio sobre el mester de clerecía (Milagros de nuestra señora) alguna actividad sencilla para que los estudiantes realicen a partir del mismo. Reformular la Actividad asociada al audio de Manrique.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4, 10, 11) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 3, 11) Cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4, 11, 12) De presentarse, cambiar expresiones al "español colombiano". Revisar Fichas y corregirlas. A lo mejor hay que reformular algunas preguntas de las actividades.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 4) Recurso elaborado por el autor. Aprobado para digitalizar. Obervar que se modifica el titulo y la descripción.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4, 5) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 10) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2, 4, 11) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t>(DBA: 10) Usar las pestañas para enunciar los diferentes usos de la h y mostrar ejemplos y listas de palabras. La idea es que las imágenes aligeren la visualización del interactivo, así que pueden ilustrar oraciones de los ejemplos.</t>
-  </si>
-  <si>
-    <t>(DBA: 10) Adaptar un texto en el que predominen palabras con "h", ya sea que empiecen con ella o no.</t>
-  </si>
-  <si>
-    <t>(DBA: 10) Diseñar un crucigrama de palabras con "h", ya sea que empiecen con ella o no, y que no sea demasiado fácil. Usar palabras poco comunes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A un significado dado asociar diferentes imágenes (significantes) que se encuentren habitualmente en la ciudad, el hogar o la vida diaria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(DBA: 3, 6, 7) A partir de una lectura -un análisis literario de una obra medieval española-, definir o explicar conceptos básicos del análisis literario como personajes, argumento, estructura de la obra, contexto histórico/social, género, estilo, en fin. </t>
-  </si>
-  <si>
-    <t>(DBA: 3) Definir textos para que sean grabados para los que el estudiante asigne un titulo que encierre la idea principal</t>
-  </si>
-  <si>
-    <t>(DBA: 3) A partir de fragmentos de análisis literarios (pueden ser citas), el estudiante deberá señalar entre varias opciones la intención o finalidad de cada uno.</t>
-  </si>
-  <si>
-    <t>(DBA: 3) De acuerdo a la lectura, presentar diferentes fragmentos para preguntar en cada uno al estudiante si se trata de análisis literario o no.</t>
-  </si>
-  <si>
-    <t>(DBA: 3) A partir de un fragmento de análisis literario (podría ser de la lectura diagnóstica) proponer una serie de ideas para ser organizadas consecutivamente. Dependiendo de la extención del audio, podría tratar sobre la estructura, el orden de aparición o la finalidad de cada parte del texto.</t>
-  </si>
-  <si>
-    <t>(DBA: 2, 3, 6, 9) La idea es que el estudiante identifique por su propia observación, cuáles son las características y propósito del análisis literario y lo exponga en un texto.</t>
-  </si>
-  <si>
-    <t>(DBA: 3) Preguntas sobre el análisis de textos literarios: características, conceptos, intención.</t>
-  </si>
-  <si>
-    <t>(DBA: 3, 6, 7, 8, 9) Instrucciones para realizar un análisis literario de acuerdo a lo expuesto en la sección anterior (Introducción, Proceso, Conclusiones, Preguntas...)</t>
-  </si>
-  <si>
-    <t>(DBA: 3, 6, 7, 8, 9) Corregir "edad media" por "Edad Media" en todos los casos. Reformular las intrucciones del botón "Investiga", incluso del "Comprensión", de modo que sea explícito que el estudiante está realizando un análisis literario. Observar que cambia titulo y descripción.</t>
-  </si>
-  <si>
-    <t>(DBA: 3) El estudiante deberá arrastrar definiciones breves de los conceptos: personajes, argumento, estructura de la obra, contexto histórico/social… (se deben ajustar a lo expuesto en el interactivo del subtema: El análisis literario).</t>
-  </si>
-  <si>
-    <t>(DBA: 1, 2) Observar que cambia el titulo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RBA: 1, 4) Recurso elaborado por el autor. Aprobado para digitalizar. </t>
-  </si>
-  <si>
-    <t>(DBA: 3) Subir un análisis literario no muy extenso en pdf, ya sea propio o de autor, que presente una estructura claramente identificable.</t>
-  </si>
-  <si>
-    <t>(DBA: 4, 13, 14) Recurso elaborado por el autor. Aprobado para digitalizar. Obervar que la descripción se modifica un poco. A su vez, dar más claridad en el Enunciado Principal (Instrucción), que se entienda cómo va a desarrollarse la parte de la exposición a la clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE_10_01_COEl análisis literario Lingüística: el signo lingüístico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: las características del signo lingüístico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para comprender las características del signo lingüístico </t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lectura crítica: el análisis de textos literariosConsolidación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: titular párrafos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para desarrollar habilidades lectoras </t>
-  </si>
-  <si>
-    <t>Proponer ejercicio para aplicar la estrategia de titular párrafos. Se les pueden dar los párrafos y también ponerlos a reflexionar sobre esta estrategia, que digan por qué es útil, cuándo la emplearían…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM </t>
-  </si>
-  <si>
-    <t>Recursos M101A-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producción escrita: el análisis de textos literarios  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: El análisis literario </t>
-  </si>
-  <si>
-    <t>Actividad para aplicar los conocimientos de la literatura española medieval en un análisis literario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer un fragmento de la literatura medieval ESPAÑOLA y elaborar preguntas que apunten al análisis literario. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer consultar sobre el signo lingüístico y algunos autores como Saussure y Pierce. Para llegar a conclusiones sobre lo que es el signo lingüístico. Proponer preguntas que busquen analizar lo que dice cada uno. </t>
-  </si>
-  <si>
-    <t>Recursos M101A-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe incluirse 10 preguntas. 3 de la sección de literatura. 2 de lingüística. 2 de ortografía. 2 de comprensión y 1 de Producción. </t>
-  </si>
-  <si>
-    <t>Recurso M101AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividades para repasar los contenidos del tema El análisi literario. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE_10_01_CO El análisis literario Banco de actividades </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE_10_01_CO El análisis literario Lingüística: el signo lingüístico </t>
+    <t>Resuelve el crucigrama de palabras con "h"</t>
+  </si>
+  <si>
+    <t>El análisis de textos literarios</t>
+  </si>
+  <si>
+    <t>Las características del análisis de un texto literario</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El análisis de textos literarios</t>
+  </si>
+  <si>
+    <t>Los aspectos básicos del análisis literario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema El análisis literario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_10_01_CO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_10_01_CO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El análisis literario </t>
+  </si>
+  <si>
+    <t>Banco de actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El análisis literario Lingüística: el signo lingüístico </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,19 +1265,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1352,6 +1344,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1657,7 +1661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="415">
+  <cellStyleXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2073,8 +2077,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2102,23 +2110,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2154,26 +2145,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2182,26 +2155,100 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2218,7 +2265,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="415">
+  <cellStyles count="419">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2426,6 +2473,8 @@
     <cellStyle name="Hipervínculo" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="417" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2633,6 +2682,8 @@
     <cellStyle name="Hipervínculo visitado" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="418" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2903,7 +2954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2913,202 +2964,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="59" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="92.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="14" style="96" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="96" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="96" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="64.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="22" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="22" customWidth="1"/>
-    <col min="19" max="19" width="11" style="22" customWidth="1"/>
-    <col min="20" max="20" width="36.42578125" style="22" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="10.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="59" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="92.33203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="14" style="57" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="57" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="64.33203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="15" customWidth="1"/>
+    <col min="19" max="19" width="11" style="15" customWidth="1"/>
+    <col min="20" max="20" width="36.5" style="15" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="15" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="97" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="S1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="T1" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="124" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="23" t="s">
+    <row r="2" spans="1:21" s="17" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="31">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="24">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="35" t="s">
-        <v>262</v>
+      <c r="O3" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="29">
         <v>6</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="U3" s="37" t="s">
+      <c r="T3" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="30" t="s">
-        <v>233</v>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
@@ -3116,262 +3167,262 @@
       <c r="I4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="34" t="s">
-        <v>263</v>
+      <c r="O4" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="29">
         <v>6</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="72">
+        <v>3</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="75">
+        <v>6</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="U5" s="76" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D6" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="30" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="82">
+        <v>4</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="K6" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L6" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="M6" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="84"/>
+      <c r="O6" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q6" s="85">
         <v>6</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R6" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S6" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T6" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U6" s="87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="41">
-        <v>6</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="24">
         <v>5</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="33" t="s">
+      <c r="J7" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="34" t="s">
-        <v>287</v>
+      <c r="O7" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="29">
         <v>6</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="U7" s="37" t="s">
+      <c r="T7" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="24">
         <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="34" t="s">
-        <v>289</v>
+      <c r="O8" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="36">
         <v>6</v>
       </c>
       <c r="R8" s="5" t="s">
@@ -3381,30 +3432,30 @@
         <v>94</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="U8" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="U8" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="10">
@@ -3413,24 +3464,24 @@
       <c r="I9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="34" t="s">
-        <v>266</v>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="34" t="s">
         <v>113</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -3442,93 +3493,93 @@
       <c r="T9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="42" t="s">
+      <c r="U9" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="82">
         <v>8</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="P10" s="11" t="s">
+      <c r="N10" s="86"/>
+      <c r="O10" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="109">
         <v>6</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:21">
+      <c r="A11" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="23" t="s">
         <v>128</v>
       </c>
       <c r="H11" s="10">
@@ -3537,24 +3588,24 @@
       <c r="I11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="34" t="s">
-        <v>267</v>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="43" t="s">
+      <c r="Q11" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R11" s="5" t="s">
@@ -3566,91 +3617,91 @@
       <c r="T11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:21">
+      <c r="A12" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="82">
         <v>10</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="43" t="s">
+      <c r="Q12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:21">
+      <c r="A13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="41" t="s">
         <v>139</v>
       </c>
       <c r="H13" s="10">
@@ -3659,24 +3710,24 @@
       <c r="I13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="34" t="s">
-        <v>269</v>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="43" t="s">
+      <c r="Q13" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -3688,30 +3739,30 @@
       <c r="T13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="U13" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:21">
+      <c r="A14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="23" t="s">
         <v>117</v>
       </c>
       <c r="H14" s="10">
@@ -3720,24 +3771,24 @@
       <c r="I14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="34" t="s">
-        <v>270</v>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="43" t="s">
+      <c r="Q14" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -3749,30 +3800,30 @@
       <c r="T14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="44" t="s">
+      <c r="U14" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:21">
+      <c r="A15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="23" t="s">
         <v>142</v>
       </c>
       <c r="H15" s="10">
@@ -3781,24 +3832,24 @@
       <c r="I15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="34" t="s">
-        <v>271</v>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="5" t="s">
@@ -3810,30 +3861,30 @@
       <c r="T15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:21">
+      <c r="A16" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="25" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="10">
@@ -3842,24 +3893,24 @@
       <c r="I16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="34" t="s">
-        <v>272</v>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="43" t="s">
+      <c r="Q16" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -3871,30 +3922,30 @@
       <c r="T16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U16" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:21">
+      <c r="A17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="25" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="10">
@@ -3903,24 +3954,24 @@
       <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="34" t="s">
-        <v>279</v>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="27" t="s">
+        <v>266</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="Q17" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3932,91 +3983,91 @@
       <c r="T17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:21">
+      <c r="A18" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="82">
         <v>16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="33" t="s">
+      <c r="J18" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="P18" s="11" t="s">
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="P18" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:21">
+      <c r="A19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="41" t="s">
         <v>150</v>
       </c>
       <c r="H19" s="10">
@@ -4025,24 +4076,24 @@
       <c r="I19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="34" t="s">
-        <v>274</v>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="43" t="s">
+      <c r="Q19" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -4054,28 +4105,28 @@
       <c r="T19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="23" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="10">
@@ -4084,24 +4135,24 @@
       <c r="I20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="34" t="s">
-        <v>275</v>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="43" t="s">
+      <c r="Q20" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -4113,89 +4164,89 @@
       <c r="T20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="44" t="s">
+      <c r="U20" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:21">
+      <c r="A21" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" s="79"/>
+      <c r="G21" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="82">
         <v>19</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="K21" s="33" t="s">
+      <c r="J21" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="P21" s="11" t="s">
+      <c r="N21" s="86"/>
+      <c r="O21" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="109">
         <v>6</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="U21" s="44" t="s">
+      <c r="T21" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="U21" s="110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="23" t="s">
         <v>154</v>
       </c>
       <c r="H22" s="10">
@@ -4204,24 +4255,24 @@
       <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="34" t="s">
-        <v>277</v>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="43" t="s">
+      <c r="Q22" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -4233,28 +4284,28 @@
       <c r="T22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="44" t="s">
+      <c r="U22" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:21">
+      <c r="A23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="33"/>
+      <c r="G23" s="23" t="s">
         <v>156</v>
       </c>
       <c r="H23" s="10">
@@ -4263,26 +4314,26 @@
       <c r="I23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47" t="s">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="27" t="s">
         <v>160</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="36">
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -4294,148 +4345,148 @@
       <c r="T23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="U23" s="44" t="s">
+      <c r="U23" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:21">
+      <c r="A24" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="30" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="82">
         <v>22</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="34" t="s">
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="43" t="s">
+      <c r="Q24" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="U24" s="44" t="s">
+      <c r="U24" s="110" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:21">
+      <c r="A25" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="79"/>
+      <c r="G25" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="82">
         <v>23</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="34" t="s">
+      <c r="N25" s="86"/>
+      <c r="O25" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="109">
         <v>6</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="T25" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="U25" s="44" t="s">
+      <c r="T25" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="U25" s="110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:21">
+      <c r="A26" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="23" t="s">
         <v>173</v>
       </c>
       <c r="H26" s="10">
@@ -4444,26 +4495,26 @@
       <c r="I26" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="34" t="s">
-        <v>283</v>
+      <c r="N26" s="40"/>
+      <c r="O26" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="36">
         <v>6</v>
       </c>
       <c r="R26" s="5" t="s">
@@ -4475,29 +4526,29 @@
       <c r="T26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="44" t="s">
+      <c r="U26" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:21">
+      <c r="A27" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="30" t="s">
-        <v>256</v>
+      <c r="E27" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="H27" s="10">
         <v>25</v>
@@ -4505,112 +4556,116 @@
       <c r="I27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="34" t="s">
-        <v>255</v>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="43" t="s">
+      <c r="Q27" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="R27" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="S27" s="43" t="s">
+      <c r="S27" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="T27" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="U27" s="43" t="s">
+      <c r="U27" s="36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:21">
+      <c r="A28" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53" t="s">
+      <c r="B28" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="H28" s="15">
+      <c r="F28" s="55"/>
+      <c r="G28" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="62">
         <v>26</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="J28" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="K28" s="57" t="s">
+      <c r="I28" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="58" t="s">
+      <c r="L28" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="P28" s="16" t="s">
+      <c r="N28" s="88"/>
+      <c r="O28" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="P28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="89">
         <v>6</v>
       </c>
-      <c r="R28" s="60" t="s">
+      <c r="R28" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="S28" s="60" t="s">
+      <c r="S28" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="T28" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="U28" s="61" t="s">
+      <c r="T28" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="U28" s="90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:21">
+      <c r="A29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="30" t="s">
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="23" t="s">
         <v>191</v>
       </c>
       <c r="H29" s="10">
@@ -4619,26 +4674,26 @@
       <c r="I29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47" t="s">
+      <c r="M29" s="40"/>
+      <c r="N29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="34" t="s">
-        <v>280</v>
+      <c r="O29" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="Q29" s="36">
         <v>6</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -4650,26 +4705,26 @@
       <c r="T29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="U29" s="44" t="s">
+      <c r="U29" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:21">
+      <c r="A30" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="30" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H30" s="10">
@@ -4678,24 +4733,24 @@
       <c r="I30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="34" t="s">
-        <v>278</v>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="Q30" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4707,143 +4762,143 @@
       <c r="T30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U30" s="44" t="s">
+      <c r="U30" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:21">
+      <c r="A31" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="30" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="82">
         <v>29</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="P31" s="11" t="s">
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="P31" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="43" t="s">
+      <c r="Q31" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="44" t="s">
+      <c r="U31" s="110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:21">
+      <c r="A32" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="30" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="82">
         <v>30</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="L32" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="P32" s="11" t="s">
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="P32" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="43" t="s">
+      <c r="Q32" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="U32" s="44" t="s">
+      <c r="U32" s="110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:21">
+      <c r="A33" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="30" t="s">
-        <v>257</v>
+      <c r="F33" s="33"/>
+      <c r="G33" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="H33" s="10">
         <v>31</v>
@@ -4851,26 +4906,26 @@
       <c r="I33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="O33" s="34" t="s">
-        <v>281</v>
+      <c r="N33" s="40"/>
+      <c r="O33" s="27" t="s">
+        <v>268</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="43">
+      <c r="Q33" s="36">
         <v>6</v>
       </c>
       <c r="R33" s="5" t="s">
@@ -4882,87 +4937,89 @@
       <c r="T33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="U33" s="44" t="s">
+      <c r="U33" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:21">
+      <c r="A34" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="30" t="s">
+      <c r="F34" s="79"/>
+      <c r="G34" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" s="82">
+        <v>32</v>
+      </c>
+      <c r="I34" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="10">
+      <c r="K34" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="32" t="s">
+      <c r="M34" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="86"/>
+      <c r="O34" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="109">
+        <v>6</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="S34" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="T34" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="U34" s="110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="43">
-        <v>6</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="U34" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="23" t="s">
         <v>91</v>
       </c>
       <c r="H35" s="10">
@@ -4971,26 +5028,26 @@
       <c r="I35" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="33" t="s">
+      <c r="J35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47" t="s">
+      <c r="M35" s="40"/>
+      <c r="N35" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="34" t="s">
-        <v>284</v>
+      <c r="O35" s="27" t="s">
+        <v>271</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="43">
+      <c r="Q35" s="36">
         <v>6</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -5000,92 +5057,92 @@
         <v>158</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="U35" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="U35" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:21">
+      <c r="A36" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="39" t="s">
+      <c r="D36" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="79"/>
+      <c r="G36" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="30" t="s">
+      <c r="H36" s="82">
+        <v>34</v>
+      </c>
+      <c r="I36" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="H36" s="10">
-        <v>34</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="47" t="s">
+      <c r="L36" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="P36" s="11" t="s">
+      <c r="N36" s="86"/>
+      <c r="O36" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="P36" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="85">
         <v>6</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="T36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="U36" s="42" t="s">
+      <c r="T36" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="U36" s="87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:21">
+      <c r="A37" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="30" t="s">
-        <v>259</v>
+      <c r="F37" s="33"/>
+      <c r="G37" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="H37" s="10">
         <v>35</v>
@@ -5093,26 +5150,26 @@
       <c r="I37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="K37" s="33" t="s">
+      <c r="J37" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="L37" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="34" t="s">
-        <v>286</v>
+      <c r="N37" s="40"/>
+      <c r="O37" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="41">
+      <c r="Q37" s="34">
         <v>6</v>
       </c>
       <c r="R37" s="6" t="s">
@@ -5122,149 +5179,153 @@
         <v>94</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="U37" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="U37" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:21">
+      <c r="A38" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H38" s="15">
+      <c r="B38" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="H38" s="62">
         <v>36</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="K38" s="65" t="s">
+      <c r="J38" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="O38" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="P38" s="11" t="s">
+      <c r="N38" s="94"/>
+      <c r="O38" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="P38" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="95">
         <v>6</v>
       </c>
-      <c r="R38" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="S38" s="18" t="s">
+      <c r="R38" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="S38" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="T38" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="U38" s="68" t="s">
+      <c r="T38" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="U38" s="96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="39" spans="1:21">
+      <c r="A39" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75" t="s">
+      <c r="D39" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="117">
+        <v>37</v>
+      </c>
+      <c r="I39" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="P39" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="122">
+        <v>6</v>
+      </c>
+      <c r="R39" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="U39" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="H39" s="12">
-        <v>37</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="75" t="s">
+      <c r="E40" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="79">
-        <v>6</v>
-      </c>
-      <c r="R39" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="S39" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="T39" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="U39" s="80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75" t="s">
-        <v>220</v>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50" t="s">
+        <v>218</v>
       </c>
       <c r="H40" s="12">
         <v>38</v>
@@ -5272,26 +5333,26 @@
       <c r="I40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="K40" s="76" t="s">
+      <c r="J40" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="34" t="s">
+      <c r="L40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78" t="s">
+      <c r="M40" s="52"/>
+      <c r="N40" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="78" t="s">
-        <v>291</v>
+      <c r="O40" s="52" t="s">
+        <v>278</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="Q40" s="36">
         <v>6</v>
       </c>
       <c r="R40" s="5" t="s">
@@ -5301,31 +5362,31 @@
         <v>158</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="U40" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="U40" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:21">
+      <c r="A41" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="23" t="s">
         <v>216</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="30" t="s">
-        <v>218</v>
       </c>
       <c r="H41" s="10">
         <v>39</v>
@@ -5333,24 +5394,24 @@
       <c r="I41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="K41" s="33" t="s">
+      <c r="J41" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="34" t="s">
-        <v>292</v>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="27" t="s">
+        <v>279</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="43" t="s">
+      <c r="Q41" s="36" t="s">
         <v>113</v>
       </c>
       <c r="R41" s="5" t="s">
@@ -5360,90 +5421,92 @@
         <v>110</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="U41" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="U41" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+    <row r="42" spans="1:21">
+      <c r="A42" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="E42" s="53" t="s">
+      <c r="B42" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="H42" s="10">
+      <c r="F42" s="55"/>
+      <c r="G42" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42" s="62">
         <v>40</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="K42" s="65" t="s">
+      <c r="J42" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="59" t="s">
+      <c r="L42" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="59" t="s">
+      <c r="M42" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="47"/>
-      <c r="O42" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="P42" s="16" t="s">
+      <c r="N42" s="88"/>
+      <c r="O42" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="95">
         <v>6</v>
       </c>
-      <c r="R42" s="20" t="s">
+      <c r="R42" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="S42" s="20" t="s">
+      <c r="S42" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="T42" s="20" t="s">
+      <c r="T42" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="U42" s="103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="U42" s="85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="H43" s="10">
         <v>41</v>
@@ -5451,26 +5514,26 @@
       <c r="I43" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="K43" s="62" t="s">
+      <c r="J43" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47" t="s">
-        <v>293</v>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40" t="s">
+        <v>280</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="41">
+      <c r="Q43" s="34">
         <v>6</v>
       </c>
       <c r="R43" s="6" t="s">
@@ -5482,142 +5545,142 @@
       <c r="T43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="U43" s="42" t="s">
+      <c r="U43" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:21">
+      <c r="A44" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="30" t="s">
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="82">
         <v>42</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L44" s="34" t="s">
+      <c r="L44" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="P44" s="11" t="s">
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="P44" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="43" t="s">
+      <c r="Q44" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="U44" s="44" t="s">
+      <c r="U44" s="110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:21" s="56" customFormat="1">
+      <c r="A45" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="30" t="s">
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="82">
         <v>43</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="34" t="s">
+      <c r="L45" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="47" t="s">
+      <c r="M45" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="P45" s="11" t="s">
+      <c r="N45" s="86"/>
+      <c r="O45" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="P45" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="43">
+      <c r="Q45" s="109">
         <v>6</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="S45" s="5" t="s">
+      <c r="S45" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="U45" s="44" t="s">
+      <c r="U45" s="110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:21">
+      <c r="A46" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="30" t="s">
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="23" t="s">
         <v>179</v>
       </c>
       <c r="H46" s="10">
@@ -5626,26 +5689,26 @@
       <c r="I46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="32" t="s">
+      <c r="J46" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="O46" s="34" t="s">
+      <c r="N46" s="40"/>
+      <c r="O46" s="27" t="s">
         <v>181</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="43">
+      <c r="Q46" s="36">
         <v>6</v>
       </c>
       <c r="R46" s="5" t="s">
@@ -5657,27 +5720,27 @@
       <c r="T46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="U46" s="44" t="s">
+      <c r="U46" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:21">
+      <c r="A47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="30" t="s">
-        <v>251</v>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="H47" s="10">
         <v>45</v>
@@ -5685,26 +5748,26 @@
       <c r="I47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="33" t="s">
+      <c r="J47" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="47" t="s">
+      <c r="M47" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="34" t="s">
-        <v>296</v>
+      <c r="N47" s="40"/>
+      <c r="O47" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="43">
+      <c r="Q47" s="36">
         <v>6</v>
       </c>
       <c r="R47" s="5" t="s">
@@ -5714,29 +5777,29 @@
         <v>94</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="U47" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="U47" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+    <row r="48" spans="1:21">
+      <c r="A48" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="30" t="s">
-        <v>204</v>
       </c>
       <c r="H48" s="10">
         <v>46</v>
@@ -5744,44 +5807,44 @@
       <c r="I48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="K48" s="33" t="s">
+      <c r="J48" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="34" t="s">
+      <c r="L48" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="34"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="27"/>
       <c r="P48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="43"/>
+      <c r="Q48" s="36"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="44"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="U48" s="37"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="30" t="s">
-        <v>205</v>
+      <c r="D49" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="H49" s="10">
         <v>47</v>
@@ -5789,26 +5852,26 @@
       <c r="I49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K49" s="33" t="s">
+      <c r="J49" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K49" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="34" t="s">
+      <c r="L49" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="47" t="s">
+      <c r="M49" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="47"/>
-      <c r="O49" s="34" t="s">
-        <v>221</v>
+      <c r="N49" s="40"/>
+      <c r="O49" s="27" t="s">
+        <v>219</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="43">
+      <c r="Q49" s="36">
         <v>6</v>
       </c>
       <c r="R49" s="5" t="s">
@@ -5818,1055 +5881,1063 @@
         <v>94</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="U49" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="U49" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+    <row r="50" spans="1:21">
+      <c r="A50" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="H50" s="2">
+      <c r="C50" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="10">
         <v>48</v>
       </c>
-      <c r="J50" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="K50" s="93" t="s">
+      <c r="I50" s="10"/>
+      <c r="J50" s="106" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="94" t="s">
+      <c r="L50" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="95" t="s">
+      <c r="M50" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="P50" s="21" t="s">
+      <c r="N50" s="40"/>
+      <c r="O50" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="P50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="92">
+      <c r="Q50" s="36">
         <v>6</v>
       </c>
-      <c r="R50" s="92" t="s">
+      <c r="R50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S50" s="92" t="s">
+      <c r="S50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T50" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="U50" s="92" t="s">
+      <c r="T50" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="U50" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="30"/>
+    <row r="51" spans="1:21">
+      <c r="A51" s="31"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="34"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="43"/>
+      <c r="Q51" s="36"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="44"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="30"/>
+      <c r="U51" s="37"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="31"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="41"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="42"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="88"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="30"/>
+      <c r="U52" s="35"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="31"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="34"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="27"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="43"/>
+      <c r="Q54" s="36"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="44"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="30"/>
+      <c r="U54" s="37"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="31"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="34"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="27"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="43"/>
+      <c r="Q55" s="36"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="44"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="30"/>
+      <c r="U55" s="37"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="31"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="34"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="27"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="43"/>
+      <c r="Q56" s="36"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="44"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="30"/>
+      <c r="U56" s="37"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="31"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="34"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="27"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="43"/>
+      <c r="Q57" s="36"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="44"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="30"/>
+      <c r="U57" s="37"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="31"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="34"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="27"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="43"/>
+      <c r="Q58" s="36"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="44"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="30"/>
+      <c r="U58" s="37"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="31"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="34"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="27"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="43"/>
+      <c r="Q59" s="36"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="44"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="30"/>
+      <c r="U59" s="37"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="31"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="34"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="27"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="43"/>
+      <c r="Q60" s="36"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="44"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="30"/>
+      <c r="U60" s="37"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="31"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="34"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="27"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="43"/>
+      <c r="Q61" s="36"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="44"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="30"/>
+      <c r="U61" s="37"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="31"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="34"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="27"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="43"/>
+      <c r="Q62" s="36"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="44"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="30"/>
+      <c r="U62" s="37"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="31"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="34"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="27"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="43"/>
+      <c r="Q63" s="36"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="44"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="30"/>
+      <c r="U63" s="37"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="31"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="34"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="27"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="43"/>
+      <c r="Q64" s="36"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="44"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="30"/>
+      <c r="U64" s="37"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="31"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="34"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="27"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="43"/>
+      <c r="Q65" s="36"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="44"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="30"/>
+      <c r="U65" s="37"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="31"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="34"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="27"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="43"/>
+      <c r="Q66" s="36"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="44"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="30"/>
+      <c r="U66" s="37"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="31"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="34"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="27"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="43"/>
+      <c r="Q67" s="36"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="44"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="30"/>
+      <c r="U67" s="37"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="31"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="34"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="27"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="43"/>
+      <c r="Q68" s="36"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="44"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="30"/>
+      <c r="U68" s="37"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="31"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="34"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="27"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="43"/>
+      <c r="Q69" s="36"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="44"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="30"/>
+      <c r="U69" s="37"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="31"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="34"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="27"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="43"/>
+      <c r="Q70" s="36"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="44"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="30"/>
+      <c r="U70" s="37"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="31"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="23"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="34"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="27"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="43"/>
+      <c r="Q71" s="36"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="44"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="30"/>
+      <c r="U71" s="37"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="31"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="34"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="27"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="43"/>
+      <c r="Q72" s="36"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="44"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="30"/>
+      <c r="U72" s="37"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="31"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="34"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="27"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="43"/>
+      <c r="Q73" s="36"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="44"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="30"/>
+      <c r="U73" s="37"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="31"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="34"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="27"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="43"/>
+      <c r="Q74" s="36"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="44"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="30"/>
+      <c r="U74" s="37"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="31"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="34"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="27"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="43"/>
+      <c r="Q75" s="36"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="44"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="30"/>
+      <c r="U75" s="37"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="31"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="34"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="27"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="43"/>
+      <c r="Q76" s="36"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="44"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="30"/>
+      <c r="U76" s="37"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="31"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="34"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="27"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="43"/>
+      <c r="Q77" s="36"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="44"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="30"/>
+      <c r="U77" s="37"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="31"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="34"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="27"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="43"/>
+      <c r="Q78" s="36"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="44"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="30"/>
+      <c r="U78" s="37"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="31"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="34"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="27"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="43"/>
+      <c r="Q79" s="36"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="44"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="30"/>
+      <c r="U79" s="37"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="31"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="34"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="27"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="43"/>
+      <c r="Q80" s="36"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="44"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="30"/>
+      <c r="U80" s="37"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="31"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="34"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="27"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="43"/>
+      <c r="Q81" s="36"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="44"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="88"/>
-      <c r="G82" s="30"/>
+      <c r="U81" s="37"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="31"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="34"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="27"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="43"/>
+      <c r="Q82" s="36"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="44"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="30"/>
+      <c r="U82" s="37"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="31"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="34"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="27"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="43"/>
+      <c r="Q83" s="36"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="44"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="30"/>
+      <c r="U83" s="37"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="31"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="23"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="34"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="27"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="43"/>
+      <c r="Q84" s="36"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="44"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="30"/>
+      <c r="U84" s="37"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="31"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="23"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="34"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="27"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="43"/>
+      <c r="Q85" s="36"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="44"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="30"/>
+      <c r="U85" s="37"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="31"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="34"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="27"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="43"/>
+      <c r="Q86" s="36"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="44"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="30"/>
+      <c r="U86" s="37"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="31"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="34"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="27"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="43"/>
+      <c r="Q87" s="36"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="44"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="30"/>
+      <c r="U87" s="37"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="31"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="34"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="27"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="43"/>
+      <c r="Q88" s="36"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="44"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="30"/>
+      <c r="U88" s="37"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="31"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="34"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="27"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="43"/>
+      <c r="Q89" s="36"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="44"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="86"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="30"/>
+      <c r="U89" s="37"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="31"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="23"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="34"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="27"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="43"/>
+      <c r="Q90" s="36"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="44"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="30"/>
+      <c r="U90" s="37"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="31"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="23"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="34"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="27"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="43"/>
+      <c r="Q91" s="36"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="44"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="88"/>
-      <c r="G92" s="30"/>
+      <c r="U91" s="37"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="31"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="23"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="34"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="27"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="43"/>
+      <c r="Q92" s="36"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="44"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="30"/>
+      <c r="U92" s="37"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="31"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="23"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="34"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="27"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="43"/>
+      <c r="Q93" s="36"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
-      <c r="U93" s="44"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="30"/>
+      <c r="U93" s="37"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="31"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="23"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="34"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="27"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="43"/>
+      <c r="Q94" s="36"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
-      <c r="U94" s="44"/>
+      <c r="U94" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6948,16 +7019,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -6980,7 +7051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -7001,7 +7072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -7022,7 +7093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -7039,7 +7110,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -7056,7 +7127,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -7071,7 +7142,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>39</v>
@@ -7084,7 +7155,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>40</v>
@@ -7097,7 +7168,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>41</v>
@@ -7110,7 +7181,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>42</v>
@@ -7123,7 +7194,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
@@ -7138,7 +7209,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
@@ -7153,7 +7224,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>45</v>
@@ -7168,7 +7239,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
@@ -7183,7 +7254,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -7196,7 +7267,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -7209,7 +7280,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -7222,7 +7293,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -7235,7 +7306,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -7248,7 +7319,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -7261,7 +7332,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -7274,7 +7345,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -7287,7 +7358,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -7300,7 +7371,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -7313,7 +7384,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -7324,7 +7395,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -7335,7 +7406,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -7346,7 +7417,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -7357,7 +7428,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -7368,7 +7439,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -7379,7 +7450,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -7390,7 +7461,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -7401,7 +7472,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -7412,7 +7483,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -7423,7 +7494,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -7434,7 +7505,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -7445,7 +7516,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
@@ -7456,7 +7527,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -7467,7 +7538,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -7478,7 +7549,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7487,7 +7558,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7496,7 +7567,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7505,7 +7576,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7514,7 +7585,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7523,7 +7594,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7532,7 +7603,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7541,7 +7612,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7550,7 +7621,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7559,7 +7630,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7568,7 +7639,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
